--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM1_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM1_USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -404,42 +404,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS871"/>
+  <dimension ref="A1:BS878"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A764" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B786" sqref="B786"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="1"/>
-    <col min="7" max="8" width="8.796875" style="4"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.78515625" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.78515625" style="1"/>
+    <col min="7" max="8" width="8.78515625" style="4"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
       <c r="BQ3" s="3"/>
       <c r="BS3" s="2"/>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -557,7 +557,7 @@
       <c r="BQ4" s="3"/>
       <c r="BS4" s="2"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="BQ5" s="3"/>
       <c r="BS5" s="2"/>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="BQ6" s="3"/>
       <c r="BS6" s="2"/>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="BQ7" s="3"/>
       <c r="BS7" s="2"/>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="BQ8" s="3"/>
       <c r="BS8" s="2"/>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="BQ9" s="3"/>
       <c r="BS9" s="2"/>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="BQ10" s="3"/>
       <c r="BS10" s="2"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="BQ11" s="3"/>
       <c r="BS11" s="2"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="BQ12" s="3"/>
       <c r="BS12" s="2"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="BQ13" s="3"/>
       <c r="BS13" s="2"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="BQ14" s="3"/>
       <c r="BS14" s="2"/>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="BQ15" s="3"/>
       <c r="BS15" s="2"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="BQ16" s="3"/>
       <c r="BS16" s="2"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1464,12 +1464,12 @@
       <c r="BQ17" s="3"/>
       <c r="BS17" s="2"/>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>5335</v>
+        <v>7731</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -1534,7 +1534,7 @@
       <c r="BQ18" s="3"/>
       <c r="BS18" s="2"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="BQ19" s="3"/>
       <c r="BS19" s="2"/>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="BQ20" s="3"/>
       <c r="BS20" s="2"/>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="BQ21" s="3"/>
       <c r="BS21" s="2"/>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="BQ22" s="3"/>
       <c r="BS22" s="2"/>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="BQ23" s="3"/>
       <c r="BS23" s="2"/>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="BP24" s="4"/>
       <c r="BQ24" s="3"/>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="BP25" s="4"/>
       <c r="BQ25" s="3"/>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="BP26" s="4"/>
       <c r="BQ26" s="3"/>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="BP27" s="4"/>
       <c r="BQ27" s="3"/>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="BP28" s="4"/>
       <c r="BQ28" s="3"/>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="BP29" s="4"/>
       <c r="BQ29" s="3"/>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="BP30" s="4"/>
       <c r="BQ30" s="3"/>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="BP31" s="4"/>
       <c r="BQ31" s="3"/>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="BP32" s="4"/>
       <c r="BQ32" s="3"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="BP33" s="4"/>
       <c r="BQ33" s="3"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="BP34" s="4"/>
       <c r="BQ34" s="3"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="BP35" s="4"/>
       <c r="BQ35" s="3"/>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="BP36" s="4"/>
       <c r="BQ36" s="3"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2780,7 +2780,7 @@
       <c r="BP37" s="4"/>
       <c r="BQ37" s="3"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="BP38" s="4"/>
       <c r="BQ38" s="3"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="BP39" s="4"/>
       <c r="BQ39" s="3"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="BP40" s="4"/>
       <c r="BQ40" s="3"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="BP41" s="4"/>
       <c r="BQ41" s="3"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -3100,12 +3100,12 @@
       <c r="BP42" s="4"/>
       <c r="BQ42" s="3"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="2">
-        <v>5360</v>
+        <v>7739</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -3164,7 +3164,7 @@
       <c r="BP43" s="4"/>
       <c r="BQ43" s="3"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="BP44" s="4"/>
       <c r="BQ44" s="3"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="BP45" s="4"/>
       <c r="BQ45" s="3"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="BP46" s="4"/>
       <c r="BQ46" s="3"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="BP47" s="4"/>
       <c r="BQ47" s="3"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="BP48" s="4"/>
       <c r="BQ48" s="3"/>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="BP49" s="4"/>
       <c r="BQ49" s="3"/>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="BP50" s="4"/>
       <c r="BQ50" s="3"/>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="BP51" s="4"/>
       <c r="BQ51" s="3"/>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="BP52" s="4"/>
       <c r="BQ52" s="3"/>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="BP53" s="4"/>
       <c r="BQ53" s="3"/>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="BP54" s="4"/>
       <c r="BQ54" s="3"/>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="BP55" s="4"/>
       <c r="BQ55" s="3"/>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="BP56" s="4"/>
       <c r="BQ56" s="3"/>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="BP57" s="4"/>
       <c r="BQ57" s="3"/>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="BP58" s="4"/>
       <c r="BQ58" s="3"/>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="BP59" s="4"/>
       <c r="BQ59" s="3"/>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="BP60" s="4"/>
       <c r="BQ60" s="3"/>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="BP61" s="4"/>
       <c r="BQ61" s="3"/>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="BP62" s="4"/>
       <c r="BQ62" s="3"/>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="BP63" s="4"/>
       <c r="BQ63" s="3"/>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -4284,12 +4284,12 @@
       <c r="BP64" s="4"/>
       <c r="BQ64" s="3"/>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" s="2">
-        <v>5382</v>
+        <v>7729</v>
       </c>
       <c r="C65" s="3">
         <v>0</v>
@@ -4334,7 +4334,7 @@
       <c r="BP65" s="4"/>
       <c r="BQ65" s="3"/>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="BP66" s="4"/>
       <c r="BQ66" s="3"/>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="BP67" s="4"/>
       <c r="BQ67" s="3"/>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="BP68" s="4"/>
       <c r="BQ68" s="3"/>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="BP69" s="4"/>
       <c r="BQ69" s="3"/>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="BP70" s="4"/>
       <c r="BQ70" s="3"/>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="BP71" s="4"/>
       <c r="BQ71" s="3"/>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="3"/>
       <c r="I72" s="3"/>
       <c r="M72" s="1"/>
@@ -4659,7 +4659,7 @@
       <c r="BP72" s="4"/>
       <c r="BQ72" s="3"/>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="BP73" s="4"/>
       <c r="BQ73" s="3"/>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>129</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="BP74" s="4"/>
       <c r="BQ74" s="3"/>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>130</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="BP75" s="4"/>
       <c r="BQ75" s="3"/>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>131</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="BP76" s="4"/>
       <c r="BQ76" s="3"/>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>132</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="BP77" s="4"/>
       <c r="BQ77" s="3"/>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>133</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="3"/>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>134</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="3"/>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>135</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="T80" s="4"/>
       <c r="U80" s="3"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>136</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="3"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>137</v>
       </c>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>138</v>
       </c>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>139</v>
       </c>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>140</v>
       </c>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>141</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>142</v>
       </c>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>143</v>
       </c>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>144</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>145</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>146</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>147</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>148</v>
       </c>
@@ -5020,27 +5020,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>5</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>7</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>8</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>9</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>10</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>11</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>12</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>13</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>14</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>15</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>16</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>17</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>18</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>19</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>20</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>21</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>22</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>23</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>24</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>25</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>26</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>27</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>28</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>29</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>30</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>31</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>32</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>33</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>34</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>35</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>36</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>37</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>38</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>39</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>40</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>41</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>42</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>43</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>45</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>46</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>47</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>48</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>49</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>50</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>51</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>52</v>
       </c>
@@ -6548,12 +6548,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>129</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>130</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>131</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>132</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>133</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>134</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>135</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>136</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>137</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>138</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>139</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>140</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>141</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>142</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>143</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>144</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>145</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>146</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>147</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>148</v>
       </c>
@@ -6773,22 +6773,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>3</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>4</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>5</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>6</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>7</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>8</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>9</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>10</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>11</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>12</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>13</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>14</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>15</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>16</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>17</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>18</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>19</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>20</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>21</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>22</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>23</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>24</v>
       </c>
@@ -7484,12 +7484,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>25</v>
       </c>
       <c r="B201" s="2">
-        <v>5460</v>
+        <v>7737</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>26</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>27</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>28</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>29</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>30</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>31</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>32</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>33</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>34</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>35</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>36</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>37</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>38</v>
       </c>
@@ -7890,12 +7890,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>129</v>
       </c>
@@ -7906,18 +7906,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>130</v>
       </c>
       <c r="B218" s="2">
-        <v>1921</v>
+        <v>1912</v>
       </c>
       <c r="C218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>131</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>132</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>133</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>134</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>135</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>136</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>137</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>138</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>139</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>140</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>141</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>142</v>
       </c>
@@ -8049,22 +8049,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>1</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>3</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>4</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>5</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>6</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>8</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>9</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>10</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>11</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>12</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>13</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>14</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>15</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>16</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>17</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>18</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>19</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>20</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>21</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>22</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>23</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>24</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>25</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>26</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>27</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>28</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>29</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>30</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>31</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>32</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>33</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>34</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>35</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>36</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>37</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>38</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>39</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>40</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>41</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>42</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>43</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>44</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>45</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>46</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>47</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>48</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>49</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>50</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>51</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>52</v>
       </c>
@@ -9572,12 +9572,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>129</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>130</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>131</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>132</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>133</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>134</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>135</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>136</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>137</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>138</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>139</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>140</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>141</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>142</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>143</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>144</v>
       </c>
@@ -9753,22 +9753,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>1</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>3</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>4</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>5</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>6</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>7</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>8</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>9</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>10</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>11</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>12</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>13</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>14</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>15</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>16</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>17</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>18</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>19</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>20</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>21</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>22</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>23</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>24</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>25</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>26</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>27</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>28</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>29</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>30</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>31</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>32</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>33</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>34</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>35</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>36</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>37</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>38</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>39</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>40</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>41</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>42</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>43</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>44</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>45</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>46</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>47</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>48</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>49</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>50</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>51</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>52</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>53</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>54</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>55</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>56</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>57</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>58</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>59</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>60</v>
       </c>
@@ -11508,12 +11508,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>61</v>
       </c>
       <c r="B370" s="2">
-        <v>5901</v>
+        <v>7740</v>
       </c>
       <c r="C370">
         <v>0</v>
@@ -11537,7 +11537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>62</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>63</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>64</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>65</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>66</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>67</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>68</v>
       </c>
@@ -11740,12 +11740,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>129</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>130</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>131</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>132</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>133</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>134</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>135</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1">
         <v>136</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1">
         <v>137</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>138</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>139</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>140</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1">
         <v>141</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1">
         <v>142</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>143</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>144</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>145</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>146</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>147</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>148</v>
       </c>
@@ -11965,22 +11965,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1">
         <v>1</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1">
         <v>3</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>4</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>5</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>6</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>7</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>8</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>9</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>10</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>11</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>12</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>13</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>14</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>15</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>16</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>17</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>18</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>19</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>20</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>21</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>22</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>23</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>24</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>25</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>26</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>27</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>28</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>29</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>30</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>31</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>32</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>33</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>34</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>35</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>36</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>37</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>38</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>39</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>40</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>41</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1">
         <v>42</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1">
         <v>43</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>44</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1">
         <v>45</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1">
         <v>46</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1">
         <v>47</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1">
         <v>48</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1">
         <v>49</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1">
         <v>50</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>51</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1">
         <v>52</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1">
         <v>53</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1">
         <v>54</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1">
         <v>55</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1">
         <v>56</v>
       </c>
@@ -13604,13 +13604,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1">
         <v>129</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1">
         <v>130</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1">
         <v>131</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1">
         <v>132</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1">
         <v>133</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1">
         <v>134</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1">
         <v>135</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1">
         <v>136</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>137</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1">
         <v>138</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1">
         <v>139</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1">
         <v>140</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1">
         <v>141</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1">
         <v>142</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1">
         <v>143</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1">
         <v>144</v>
       </c>
@@ -13786,22 +13786,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1">
         <v>1</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1">
         <v>2</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1">
         <v>3</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1">
         <v>4</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1">
         <v>5</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1">
         <v>6</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1">
         <v>7</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1">
         <v>8</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1">
         <v>9</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1">
         <v>10</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1">
         <v>11</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1">
         <v>12</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1">
         <v>13</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1">
         <v>14</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1">
         <v>15</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1">
         <v>16</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1">
         <v>17</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1">
         <v>18</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1">
         <v>19</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1">
         <v>20</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1">
         <v>21</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1">
         <v>22</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1">
         <v>23</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1">
         <v>24</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1">
         <v>25</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1">
         <v>26</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1">
         <v>27</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1">
         <v>28</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1">
         <v>29</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1">
         <v>30</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1">
         <v>31</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1">
         <v>32</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1">
         <v>33</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1">
         <v>34</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1">
         <v>35</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1">
         <v>36</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1">
         <v>37</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1">
         <v>38</v>
       </c>
@@ -14903,12 +14903,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1">
         <v>129</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1">
         <v>130</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1">
         <v>131</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1">
         <v>132</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1">
         <v>133</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1">
         <v>134</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1">
         <v>135</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1">
         <v>136</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1">
         <v>137</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1">
         <v>138</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1">
         <v>139</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1">
         <v>140</v>
       </c>
@@ -15040,22 +15040,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1">
         <v>1</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
         <v>2</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1">
         <v>3</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1">
         <v>4</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1">
         <v>5</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1">
         <v>6</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1">
         <v>7</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1">
         <v>8</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1">
         <v>9</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1">
         <v>10</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1">
         <v>11</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1">
         <v>12</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1">
         <v>13</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1">
         <v>14</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1">
         <v>15</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1">
         <v>16</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1">
         <v>17</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1">
         <v>18</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1">
         <v>19</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1">
         <v>20</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1">
         <v>21</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1">
         <v>22</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1">
         <v>23</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1">
         <v>24</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1">
         <v>25</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1">
         <v>26</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1">
         <v>27</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1">
         <v>28</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1">
         <v>29</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1">
         <v>30</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1">
         <v>31</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1">
         <v>32</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1">
         <v>33</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1">
         <v>34</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1">
         <v>35</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1">
         <v>36</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1">
         <v>37</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1">
         <v>38</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1">
         <v>39</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1">
         <v>40</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1">
         <v>41</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1">
         <v>42</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1">
         <v>43</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1">
         <v>44</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1">
         <v>45</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1">
         <v>46</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1">
         <v>47</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1">
         <v>48</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1">
         <v>49</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1">
         <v>50</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1">
         <v>51</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1">
         <v>52</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1">
         <v>53</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1">
         <v>54</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1">
         <v>55</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1">
         <v>56</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1">
         <v>57</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1">
         <v>58</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1">
         <v>59</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1">
         <v>60</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1">
         <v>61</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1">
         <v>62</v>
       </c>
@@ -16853,12 +16853,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1">
         <v>129</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1">
         <v>130</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1">
         <v>131</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="1">
         <v>132</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1">
         <v>133</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1">
         <v>134</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1">
         <v>135</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1">
         <v>136</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1">
         <v>137</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="1">
         <v>138</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="1">
         <v>139</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="1">
         <v>140</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="1">
         <v>141</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="1">
         <v>142</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="1">
         <v>143</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="1">
         <v>144</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="1">
         <v>145</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="1">
         <v>146</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="1">
         <v>147</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="1">
         <v>148</v>
       </c>
@@ -17078,22 +17078,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="1">
         <v>1</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="1">
         <v>2</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="1">
         <v>3</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="1">
         <v>4</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="1">
         <v>5</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="1">
         <v>6</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="1">
         <v>7</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="1">
         <v>8</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="1">
         <v>9</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="1">
         <v>10</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="1">
         <v>11</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="1">
         <v>12</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="1">
         <v>13</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="1">
         <v>14</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="1">
         <v>15</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="1">
         <v>16</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="1">
         <v>17</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="1">
         <v>18</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="1">
         <v>19</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="1">
         <v>20</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="1">
         <v>21</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1">
         <v>22</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="1">
         <v>23</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="1">
         <v>24</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="1">
         <v>25</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="1">
         <v>26</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="1">
         <v>27</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="1">
         <v>28</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="1">
         <v>29</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="1">
         <v>30</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1">
         <v>31</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="1">
         <v>32</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="1">
         <v>33</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="1">
         <v>34</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="1">
         <v>35</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1">
         <v>36</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="1">
         <v>37</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="1">
         <v>38</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1">
         <v>39</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="1">
         <v>40</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="1">
         <v>41</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="1">
         <v>42</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="1">
         <v>43</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="1">
         <v>44</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="1">
         <v>45</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="1">
         <v>46</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="1">
         <v>47</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="1">
         <v>48</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="1">
         <v>49</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="1">
         <v>50</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="1">
         <v>51</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="1">
         <v>52</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="1">
         <v>53</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="1">
         <v>54</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="1">
         <v>55</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="1">
         <v>56</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="1">
         <v>57</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="1">
         <v>58</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="1">
         <v>59</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="1">
         <v>60</v>
       </c>
@@ -18833,23 +18833,23 @@
         <v>99</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="1">
         <v>129</v>
       </c>
       <c r="B695" s="2">
-        <v>1988</v>
+        <v>2123</v>
       </c>
       <c r="C695">
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="1">
         <v>130</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="1">
         <v>131</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="1">
         <v>132</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="1">
         <v>133</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="1">
         <v>134</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="1">
         <v>135</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1">
         <v>136</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="1">
         <v>137</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="1">
         <v>138</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="1">
         <v>139</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="1">
         <v>140</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="1">
         <v>141</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1">
         <v>142</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="1">
         <v>143</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="1">
         <v>144</v>
       </c>
@@ -19014,22 +19014,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="1">
         <v>1</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="1">
         <v>2</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="1">
         <v>3</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="1">
         <v>4</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="1">
         <v>5</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="1">
         <v>6</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="1">
         <v>7</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1">
         <v>8</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="1">
         <v>9</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="1">
         <v>10</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="1">
         <v>11</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="1">
         <v>12</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="1">
         <v>13</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="1">
         <v>14</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="1">
         <v>15</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="1">
         <v>16</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="1">
         <v>17</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="1">
         <v>18</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="1">
         <v>19</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="1">
         <v>20</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="1">
         <v>21</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="1">
         <v>22</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="1">
         <v>23</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1">
         <v>24</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="1">
         <v>25</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="1">
         <v>26</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="1">
         <v>27</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="1">
         <v>28</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="1">
         <v>29</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="1">
         <v>30</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="1">
         <v>31</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="1">
         <v>32</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="1">
         <v>33</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="1">
         <v>34</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="1">
         <v>35</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="1">
         <v>36</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="1">
         <v>37</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="1">
         <v>38</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="1">
         <v>39</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="1">
         <v>40</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="1">
         <v>41</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="1">
         <v>42</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="1">
         <v>43</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="1">
         <v>44</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="1">
         <v>45</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="1">
         <v>46</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="1">
         <v>47</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="1">
         <v>48</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="1">
         <v>49</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="1">
         <v>50</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="1">
         <v>51</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="1">
         <v>52</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="1">
         <v>53</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="1">
         <v>54</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="1">
         <v>55</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="1">
         <v>56</v>
       </c>
@@ -20653,12 +20653,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="1">
         <v>129</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="1">
         <v>130</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="1">
         <v>131</v>
       </c>
@@ -20691,117 +20691,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="1">
         <v>132</v>
       </c>
       <c r="B776" s="2">
-        <v>2004</v>
+        <v>607</v>
       </c>
       <c r="C776">
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="1">
         <v>133</v>
       </c>
       <c r="B777" s="2">
-        <v>2005</v>
+        <v>631</v>
       </c>
       <c r="C777">
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" s="1">
         <v>134</v>
       </c>
       <c r="B778" s="2">
-        <v>2006</v>
+        <v>630</v>
       </c>
       <c r="C778">
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" s="1">
         <v>135</v>
       </c>
       <c r="B779" s="2">
-        <v>2007</v>
+        <v>626</v>
       </c>
       <c r="C779">
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="1">
         <v>136</v>
       </c>
       <c r="B780" s="2">
-        <v>2008</v>
+        <v>624</v>
       </c>
       <c r="C780">
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="1">
         <v>137</v>
       </c>
       <c r="B781" s="2">
-        <v>2009</v>
+        <v>623</v>
       </c>
       <c r="C781">
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="1">
         <v>138</v>
       </c>
       <c r="B782" s="2">
-        <v>2010</v>
+        <v>622</v>
       </c>
       <c r="C782">
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="1">
         <v>139</v>
       </c>
       <c r="B783" s="2">
-        <v>2011</v>
+        <v>606</v>
       </c>
       <c r="C783">
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="1">
         <v>140</v>
       </c>
       <c r="B784" s="2">
-        <v>2012</v>
+        <v>2106</v>
       </c>
       <c r="C784">
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="1">
         <v>141</v>
       </c>
       <c r="B785" s="2">
-        <v>2013</v>
+        <v>2105</v>
       </c>
       <c r="C785">
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="1">
         <v>142</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="1">
         <v>143</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="1">
         <v>144</v>
       </c>
@@ -20834,24 +20834,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C793" s="3"/>
       <c r="I793" s="3"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="1">
         <v>1</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="1">
         <v>2</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="1">
         <v>3</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="1">
         <v>4</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="1">
         <v>5</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="1">
         <v>6</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="1">
         <v>7</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="1">
         <v>8</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="1">
         <v>9</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="1">
         <v>10</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="1">
         <v>11</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="1">
         <v>12</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="1">
         <v>13</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="1">
         <v>14</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="1">
         <v>15</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="1">
         <v>16</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="1">
         <v>17</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="1">
         <v>18</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="1">
         <v>19</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="1">
         <v>20</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="1">
         <v>21</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="1">
         <v>22</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="1">
         <v>23</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="1">
         <v>24</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="1">
         <v>25</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="1">
         <v>26</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="1">
         <v>27</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="1">
         <v>28</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="1">
         <v>29</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" s="1">
         <v>30</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="1">
         <v>31</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="1">
         <v>32</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="1">
         <v>33</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="1">
         <v>34</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="1">
         <v>35</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="1">
         <v>36</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="1">
         <v>37</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="1">
         <v>38</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="1">
         <v>39</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="1">
         <v>40</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="1">
         <v>41</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="1">
         <v>42</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="1">
         <v>43</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="1">
         <v>44</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="1">
         <v>45</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="1">
         <v>46</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="1">
         <v>47</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="1">
         <v>48</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="1">
         <v>49</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="1">
         <v>50</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="1">
         <v>51</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="1">
         <v>52</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="1">
         <v>53</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" s="1">
         <v>54</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" s="1">
         <v>55</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" s="1">
         <v>56</v>
       </c>
@@ -22475,14 +22475,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" s="1">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B850" s="2">
-        <v>50000</v>
-      </c>
-      <c r="C850" s="3">
+        <v>5886</v>
+      </c>
+      <c r="C850">
         <v>0</v>
       </c>
       <c r="D850" s="1">
@@ -22500,18 +22500,18 @@
       <c r="H850" s="4">
         <v>3</v>
       </c>
-      <c r="I850" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I850">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="1">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B851" s="2">
-        <v>50001</v>
-      </c>
-      <c r="C851" s="3">
+        <v>5887</v>
+      </c>
+      <c r="C851">
         <v>0</v>
       </c>
       <c r="D851" s="1">
@@ -22529,232 +22529,399 @@
       <c r="H851" s="4">
         <v>3</v>
       </c>
-      <c r="I851" s="3">
+      <c r="I851">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A852" s="1">
+        <v>48</v>
+      </c>
+      <c r="B852" s="2">
+        <v>5888</v>
+      </c>
+      <c r="C852">
+        <v>0</v>
+      </c>
+      <c r="D852" s="1">
+        <v>146</v>
+      </c>
+      <c r="E852" s="1">
+        <v>220</v>
+      </c>
+      <c r="F852" s="1">
+        <v>100</v>
+      </c>
+      <c r="G852" s="4">
+        <v>10</v>
+      </c>
+      <c r="H852" s="4">
+        <v>3</v>
+      </c>
+      <c r="I852">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A853" s="1">
+        <v>49</v>
+      </c>
+      <c r="B853" s="2">
+        <v>5889</v>
+      </c>
+      <c r="C853">
+        <v>0</v>
+      </c>
+      <c r="D853" s="1">
+        <v>147</v>
+      </c>
+      <c r="E853" s="1">
+        <v>220</v>
+      </c>
+      <c r="F853" s="1">
+        <v>100</v>
+      </c>
+      <c r="G853" s="4">
+        <v>10</v>
+      </c>
+      <c r="H853" s="4">
+        <v>3</v>
+      </c>
+      <c r="I853">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A854" s="1">
+        <v>50</v>
+      </c>
+      <c r="B854" s="2">
+        <v>5890</v>
+      </c>
+      <c r="C854">
+        <v>0</v>
+      </c>
+      <c r="D854" s="1">
+        <v>147</v>
+      </c>
+      <c r="E854" s="1">
+        <v>220</v>
+      </c>
+      <c r="F854" s="1">
+        <v>100</v>
+      </c>
+      <c r="G854" s="4">
+        <v>10</v>
+      </c>
+      <c r="H854" s="4">
+        <v>3</v>
+      </c>
+      <c r="I854">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A855" s="1">
+        <v>57</v>
+      </c>
+      <c r="B855" s="2">
+        <v>50000</v>
+      </c>
+      <c r="C855" s="3">
+        <v>0</v>
+      </c>
+      <c r="D855" s="1">
+        <v>148</v>
+      </c>
+      <c r="E855" s="1">
+        <v>220</v>
+      </c>
+      <c r="F855" s="1">
+        <v>100</v>
+      </c>
+      <c r="G855" s="4">
+        <v>10</v>
+      </c>
+      <c r="H855" s="4">
+        <v>3</v>
+      </c>
+      <c r="I855" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C852" s="3"/>
-      <c r="I852" s="3"/>
-    </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A853" s="1" t="s">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A856" s="1">
+        <v>58</v>
+      </c>
+      <c r="B856" s="2">
+        <v>50001</v>
+      </c>
+      <c r="C856" s="3">
+        <v>0</v>
+      </c>
+      <c r="D856" s="1">
+        <v>148</v>
+      </c>
+      <c r="E856" s="1">
+        <v>220</v>
+      </c>
+      <c r="F856" s="1">
+        <v>100</v>
+      </c>
+      <c r="G856" s="4">
+        <v>10</v>
+      </c>
+      <c r="H856" s="4">
+        <v>3</v>
+      </c>
+      <c r="I856" s="3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C857" s="3"/>
+      <c r="I857" s="3"/>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A858" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C853" s="3"/>
-      <c r="I853" s="3"/>
-    </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A854" s="1">
+      <c r="C858" s="3"/>
+      <c r="I858" s="3"/>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A859" s="1">
         <v>129</v>
       </c>
-      <c r="B854" s="2">
+      <c r="B859" s="2">
         <v>2015</v>
       </c>
-      <c r="C854" s="3">
-        <v>0</v>
-      </c>
-      <c r="I854" s="3"/>
-    </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A855" s="1">
+      <c r="C859" s="3">
+        <v>0</v>
+      </c>
+      <c r="I859" s="3"/>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A860" s="1">
         <v>130</v>
       </c>
-      <c r="B855" s="2">
+      <c r="B860" s="2">
         <v>2016</v>
       </c>
-      <c r="C855" s="3">
-        <v>0</v>
-      </c>
-      <c r="I855" s="3"/>
-    </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A856" s="1">
+      <c r="C860" s="3">
+        <v>0</v>
+      </c>
+      <c r="I860" s="3"/>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A861" s="1">
         <v>131</v>
       </c>
-      <c r="B856" s="2">
+      <c r="B861" s="2">
         <v>2017</v>
       </c>
-      <c r="C856" s="3">
-        <v>0</v>
-      </c>
-      <c r="I856" s="3"/>
-    </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A857" s="1">
+      <c r="C861" s="3">
+        <v>0</v>
+      </c>
+      <c r="I861" s="3"/>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A862" s="1">
         <v>132</v>
       </c>
-      <c r="B857" s="2">
+      <c r="B862" s="2">
         <v>2018</v>
       </c>
-      <c r="C857" s="3">
-        <v>0</v>
-      </c>
-      <c r="I857" s="3"/>
-    </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A858" s="1">
+      <c r="C862" s="3">
+        <v>0</v>
+      </c>
+      <c r="I862" s="3"/>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A863" s="1">
         <v>133</v>
       </c>
-      <c r="B858" s="2">
+      <c r="B863" s="2">
         <v>2019</v>
       </c>
-      <c r="C858" s="3">
-        <v>0</v>
-      </c>
-      <c r="I858" s="3"/>
-    </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A859" s="1">
+      <c r="C863" s="3">
+        <v>0</v>
+      </c>
+      <c r="I863" s="3"/>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A864" s="1">
         <v>134</v>
       </c>
-      <c r="B859" s="2">
+      <c r="B864" s="2">
         <v>2020</v>
       </c>
-      <c r="C859" s="3">
-        <v>0</v>
-      </c>
-      <c r="I859" s="3"/>
-    </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A860" s="1">
+      <c r="C864" s="3">
+        <v>0</v>
+      </c>
+      <c r="I864" s="3"/>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A865" s="1">
         <v>135</v>
       </c>
-      <c r="B860" s="2">
+      <c r="B865" s="2">
         <v>2021</v>
       </c>
-      <c r="C860" s="3">
-        <v>0</v>
-      </c>
-      <c r="I860" s="3"/>
-    </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A861" s="1">
+      <c r="C865" s="3">
+        <v>0</v>
+      </c>
+      <c r="I865" s="3"/>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A866" s="1">
         <v>136</v>
       </c>
-      <c r="B861" s="2">
+      <c r="B866" s="2">
         <v>2022</v>
       </c>
-      <c r="C861" s="3">
-        <v>0</v>
-      </c>
-      <c r="I861" s="3"/>
-    </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A862" s="1">
+      <c r="C866" s="3">
+        <v>0</v>
+      </c>
+      <c r="I866" s="3"/>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A867" s="1">
         <v>137</v>
       </c>
-      <c r="B862" s="2">
+      <c r="B867" s="2">
         <v>2023</v>
       </c>
-      <c r="C862" s="3">
-        <v>0</v>
-      </c>
-      <c r="I862" s="3"/>
-    </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A863" s="1">
+      <c r="C867" s="3">
+        <v>0</v>
+      </c>
+      <c r="I867" s="3"/>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A868" s="1">
         <v>138</v>
       </c>
-      <c r="B863" s="2">
+      <c r="B868" s="2">
         <v>2024</v>
       </c>
-      <c r="C863" s="3">
-        <v>0</v>
-      </c>
-      <c r="I863" s="3"/>
-    </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A864" s="1">
+      <c r="C868" s="3">
+        <v>0</v>
+      </c>
+      <c r="I868" s="3"/>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A869" s="1">
         <v>139</v>
       </c>
-      <c r="B864" s="2">
+      <c r="B869" s="2">
         <v>2025</v>
       </c>
-      <c r="C864" s="3">
-        <v>0</v>
-      </c>
-      <c r="I864" s="3"/>
-    </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A865" s="1">
+      <c r="C869" s="3">
+        <v>0</v>
+      </c>
+      <c r="I869" s="3"/>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A870" s="1">
         <v>140</v>
       </c>
-      <c r="B865" s="2">
+      <c r="B870" s="2">
         <v>2026</v>
       </c>
-      <c r="C865" s="3">
-        <v>0</v>
-      </c>
-      <c r="I865" s="3"/>
-    </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A866" s="1">
+      <c r="C870" s="3">
+        <v>0</v>
+      </c>
+      <c r="I870" s="3"/>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A871" s="1">
         <v>141</v>
       </c>
-      <c r="B866" s="2">
+      <c r="B871" s="2">
         <v>2027</v>
       </c>
-      <c r="C866" s="3">
-        <v>0</v>
-      </c>
-      <c r="I866" s="3"/>
-    </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A867" s="1">
+      <c r="C871" s="3">
+        <v>0</v>
+      </c>
+      <c r="I871" s="3"/>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A872" s="1">
         <v>142</v>
       </c>
-      <c r="B867" s="2">
+      <c r="B872" s="2">
         <v>2028</v>
       </c>
-      <c r="C867" s="3">
-        <v>0</v>
-      </c>
-      <c r="I867" s="3"/>
-    </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A868" s="1">
+      <c r="C872" s="3">
+        <v>0</v>
+      </c>
+      <c r="I872" s="3"/>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A873" s="1">
         <v>143</v>
       </c>
-      <c r="B868" s="2">
+      <c r="B873" s="2">
         <v>2029</v>
       </c>
-      <c r="C868" s="3">
-        <v>0</v>
-      </c>
-      <c r="I868" s="3"/>
-    </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A869" s="1">
+      <c r="C873" s="3">
+        <v>0</v>
+      </c>
+      <c r="I873" s="3"/>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A874" s="1">
         <v>144</v>
       </c>
-      <c r="B869" s="2">
+      <c r="B874" s="2">
         <v>2030</v>
       </c>
-      <c r="C869" s="3">
-        <v>0</v>
-      </c>
-      <c r="I869" s="3"/>
-    </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A870" s="1">
+      <c r="C874" s="3">
+        <v>0</v>
+      </c>
+      <c r="I874" s="3"/>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A875" s="1">
         <v>145</v>
       </c>
-      <c r="B870" s="2">
+      <c r="B875" s="2">
         <v>2031</v>
       </c>
-      <c r="C870">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A871" s="1">
+      <c r="C875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A876" s="1">
         <v>146</v>
       </c>
-      <c r="B871" s="2">
+      <c r="B876" s="2">
+        <v>2036</v>
+      </c>
+      <c r="C876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A877" s="1">
+        <v>147</v>
+      </c>
+      <c r="B877" s="2">
+        <v>2037</v>
+      </c>
+      <c r="C877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A878" s="1">
+        <v>148</v>
+      </c>
+      <c r="B878" s="2">
         <v>70000</v>
       </c>
-      <c r="C871">
+      <c r="C878">
         <v>0</v>
       </c>
     </row>

--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM1_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM1_USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -406,40 +406,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A764" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B786" sqref="B786"/>
+    <sheetView tabSelected="1" topLeftCell="A294" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I284" sqref="I284"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.78515625" style="1"/>
-    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.78515625" style="1"/>
-    <col min="7" max="8" width="8.78515625" style="4"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="8" width="8.796875" style="4"/>
+    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
       <c r="BQ3" s="3"/>
       <c r="BS3" s="2"/>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2"/>
       <c r="M4" s="1"/>
@@ -557,7 +557,7 @@
       <c r="BQ4" s="3"/>
       <c r="BS4" s="2"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -583,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2"/>
       <c r="M5" s="1"/>
@@ -627,7 +627,7 @@
       <c r="BQ5" s="3"/>
       <c r="BS5" s="2"/>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -653,7 +653,7 @@
         <v>3</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2"/>
       <c r="M6" s="1"/>
@@ -697,7 +697,7 @@
       <c r="BQ6" s="3"/>
       <c r="BS6" s="2"/>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2"/>
       <c r="M7" s="1"/>
@@ -767,7 +767,7 @@
       <c r="BQ7" s="3"/>
       <c r="BS7" s="2"/>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -793,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2"/>
       <c r="M8" s="1"/>
@@ -837,7 +837,7 @@
       <c r="BQ8" s="3"/>
       <c r="BS8" s="2"/>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -863,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2"/>
       <c r="M9" s="1"/>
@@ -907,7 +907,7 @@
       <c r="BQ9" s="3"/>
       <c r="BS9" s="2"/>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -933,7 +933,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" s="2"/>
       <c r="M10" s="1"/>
@@ -977,7 +977,7 @@
       <c r="BQ10" s="3"/>
       <c r="BS10" s="2"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" s="2"/>
       <c r="M11" s="1"/>
@@ -1047,7 +1047,7 @@
       <c r="BQ11" s="3"/>
       <c r="BS11" s="2"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12" s="2"/>
       <c r="M12" s="1"/>
@@ -1117,7 +1117,7 @@
       <c r="BQ12" s="3"/>
       <c r="BS12" s="2"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K13" s="2"/>
       <c r="M13" s="1"/>
@@ -1187,7 +1187,7 @@
       <c r="BQ13" s="3"/>
       <c r="BS13" s="2"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2"/>
       <c r="M14" s="1"/>
@@ -1257,7 +1257,7 @@
       <c r="BQ14" s="3"/>
       <c r="BS14" s="2"/>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K15" s="2"/>
       <c r="M15" s="1"/>
@@ -1327,7 +1327,7 @@
       <c r="BQ15" s="3"/>
       <c r="BS15" s="2"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K16" s="2"/>
       <c r="M16" s="1"/>
@@ -1396,7 +1396,7 @@
       <c r="BQ16" s="3"/>
       <c r="BS16" s="2"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K17" s="2"/>
       <c r="M17" s="1"/>
@@ -1464,7 +1464,7 @@
       <c r="BQ17" s="3"/>
       <c r="BS17" s="2"/>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18" s="2"/>
       <c r="M18" s="1"/>
@@ -1534,7 +1534,7 @@
       <c r="BQ18" s="3"/>
       <c r="BS18" s="2"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" s="2"/>
       <c r="M19" s="1"/>
@@ -1604,7 +1604,7 @@
       <c r="BQ19" s="3"/>
       <c r="BS19" s="2"/>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K20" s="2"/>
       <c r="M20" s="1"/>
@@ -1674,7 +1674,7 @@
       <c r="BQ20" s="3"/>
       <c r="BS20" s="2"/>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" s="2"/>
       <c r="M21" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="BQ21" s="3"/>
       <c r="BS21" s="2"/>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" s="2"/>
       <c r="M22" s="1"/>
@@ -1813,7 +1813,7 @@
       <c r="BQ22" s="3"/>
       <c r="BS22" s="2"/>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" s="2"/>
       <c r="M23" s="1"/>
@@ -1880,7 +1880,7 @@
       <c r="BQ23" s="3"/>
       <c r="BS23" s="2"/>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" s="2"/>
       <c r="M24" s="1"/>
@@ -1946,7 +1946,7 @@
       <c r="BP24" s="4"/>
       <c r="BQ24" s="3"/>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="BP25" s="4"/>
       <c r="BQ25" s="3"/>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="BP26" s="4"/>
       <c r="BQ26" s="3"/>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="BP27" s="4"/>
       <c r="BQ27" s="3"/>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="BP28" s="4"/>
       <c r="BQ28" s="3"/>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="BP29" s="4"/>
       <c r="BQ29" s="3"/>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="BP30" s="4"/>
       <c r="BQ30" s="3"/>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="BP31" s="4"/>
       <c r="BQ31" s="3"/>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="BP32" s="4"/>
       <c r="BQ32" s="3"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="BP33" s="4"/>
       <c r="BQ33" s="3"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="BP34" s="4"/>
       <c r="BQ34" s="3"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="BP35" s="4"/>
       <c r="BQ35" s="3"/>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="BP36" s="4"/>
       <c r="BQ36" s="3"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2780,7 +2780,7 @@
       <c r="BP37" s="4"/>
       <c r="BQ37" s="3"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="BP38" s="4"/>
       <c r="BQ38" s="3"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="BP39" s="4"/>
       <c r="BQ39" s="3"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="BP40" s="4"/>
       <c r="BQ40" s="3"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="BP41" s="4"/>
       <c r="BQ41" s="3"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="BP42" s="4"/>
       <c r="BQ42" s="3"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="BP43" s="4"/>
       <c r="BQ43" s="3"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="BP44" s="4"/>
       <c r="BQ44" s="3"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="BP45" s="4"/>
       <c r="BQ45" s="3"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="BP46" s="4"/>
       <c r="BQ46" s="3"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="BP47" s="4"/>
       <c r="BQ47" s="3"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="BP48" s="4"/>
       <c r="BQ48" s="3"/>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="BP49" s="4"/>
       <c r="BQ49" s="3"/>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="BP50" s="4"/>
       <c r="BQ50" s="3"/>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="BP51" s="4"/>
       <c r="BQ51" s="3"/>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="BP52" s="4"/>
       <c r="BQ52" s="3"/>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>3</v>
       </c>
       <c r="I53" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="2"/>
@@ -3734,7 +3734,7 @@
       <c r="BP53" s="4"/>
       <c r="BQ53" s="3"/>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>3</v>
       </c>
       <c r="I54" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="2"/>
@@ -3784,7 +3784,7 @@
       <c r="BP54" s="4"/>
       <c r="BQ54" s="3"/>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>3</v>
       </c>
       <c r="I55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="2"/>
@@ -3834,7 +3834,7 @@
       <c r="BP55" s="4"/>
       <c r="BQ55" s="3"/>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="2"/>
@@ -3884,7 +3884,7 @@
       <c r="BP56" s="4"/>
       <c r="BQ56" s="3"/>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>3</v>
       </c>
       <c r="I57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="2"/>
@@ -3934,7 +3934,7 @@
       <c r="BP57" s="4"/>
       <c r="BQ57" s="3"/>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="2"/>
@@ -3984,7 +3984,7 @@
       <c r="BP58" s="4"/>
       <c r="BQ58" s="3"/>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="2"/>
@@ -4034,7 +4034,7 @@
       <c r="BP59" s="4"/>
       <c r="BQ59" s="3"/>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="I60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="2"/>
@@ -4084,7 +4084,7 @@
       <c r="BP60" s="4"/>
       <c r="BQ60" s="3"/>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -4110,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="I61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="2"/>
@@ -4134,7 +4134,7 @@
       <c r="BP61" s="4"/>
       <c r="BQ61" s="3"/>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="2"/>
@@ -4184,7 +4184,7 @@
       <c r="BP62" s="4"/>
       <c r="BQ62" s="3"/>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="I63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="2"/>
@@ -4234,7 +4234,7 @@
       <c r="BP63" s="4"/>
       <c r="BQ63" s="3"/>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="2"/>
@@ -4284,7 +4284,7 @@
       <c r="BP64" s="4"/>
       <c r="BQ64" s="3"/>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
       <c r="I65" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="2"/>
@@ -4334,7 +4334,7 @@
       <c r="BP65" s="4"/>
       <c r="BQ65" s="3"/>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="I66" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="2"/>
@@ -4384,7 +4384,7 @@
       <c r="BP66" s="4"/>
       <c r="BQ66" s="3"/>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>3</v>
       </c>
       <c r="I67" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="2"/>
@@ -4434,7 +4434,7 @@
       <c r="BP67" s="4"/>
       <c r="BQ67" s="3"/>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="I68" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="2"/>
@@ -4484,7 +4484,7 @@
       <c r="BP68" s="4"/>
       <c r="BQ68" s="3"/>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="BP69" s="4"/>
       <c r="BQ69" s="3"/>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="BP70" s="4"/>
       <c r="BQ70" s="3"/>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="BP71" s="4"/>
       <c r="BQ71" s="3"/>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.4">
       <c r="C72" s="3"/>
       <c r="I72" s="3"/>
       <c r="M72" s="1"/>
@@ -4659,7 +4659,7 @@
       <c r="BP72" s="4"/>
       <c r="BQ72" s="3"/>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="BP73" s="4"/>
       <c r="BQ73" s="3"/>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>129</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="BP74" s="4"/>
       <c r="BQ74" s="3"/>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>130</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="BP75" s="4"/>
       <c r="BQ75" s="3"/>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>131</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="BP76" s="4"/>
       <c r="BQ76" s="3"/>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>132</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="BP77" s="4"/>
       <c r="BQ77" s="3"/>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>133</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="3"/>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>134</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="3"/>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>135</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="T80" s="4"/>
       <c r="U80" s="3"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>136</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="3"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>137</v>
       </c>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>138</v>
       </c>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>139</v>
       </c>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>140</v>
       </c>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>141</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>142</v>
       </c>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>143</v>
       </c>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>144</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>145</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>146</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>147</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>148</v>
       </c>
@@ -5020,27 +5020,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -5066,10 +5066,10 @@
         <v>3</v>
       </c>
       <c r="I98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -5095,10 +5095,10 @@
         <v>3</v>
       </c>
       <c r="I99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -5124,10 +5124,10 @@
         <v>3</v>
       </c>
       <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -5153,10 +5153,10 @@
         <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>5</v>
       </c>
@@ -5182,10 +5182,10 @@
         <v>3</v>
       </c>
       <c r="I102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -5211,10 +5211,10 @@
         <v>3</v>
       </c>
       <c r="I103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>7</v>
       </c>
@@ -5240,10 +5240,10 @@
         <v>3</v>
       </c>
       <c r="I104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>8</v>
       </c>
@@ -5269,10 +5269,10 @@
         <v>3</v>
       </c>
       <c r="I105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>9</v>
       </c>
@@ -5298,10 +5298,10 @@
         <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>10</v>
       </c>
@@ -5327,10 +5327,10 @@
         <v>3</v>
       </c>
       <c r="I107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>11</v>
       </c>
@@ -5356,10 +5356,10 @@
         <v>3</v>
       </c>
       <c r="I108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>12</v>
       </c>
@@ -5385,10 +5385,10 @@
         <v>3</v>
       </c>
       <c r="I109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>13</v>
       </c>
@@ -5414,10 +5414,10 @@
         <v>3</v>
       </c>
       <c r="I110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>14</v>
       </c>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="I111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>15</v>
       </c>
@@ -5472,10 +5472,10 @@
         <v>3</v>
       </c>
       <c r="I112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>16</v>
       </c>
@@ -5501,10 +5501,10 @@
         <v>3</v>
       </c>
       <c r="I113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>17</v>
       </c>
@@ -5530,10 +5530,10 @@
         <v>3</v>
       </c>
       <c r="I114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>18</v>
       </c>
@@ -5559,10 +5559,10 @@
         <v>3</v>
       </c>
       <c r="I115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>19</v>
       </c>
@@ -5588,10 +5588,10 @@
         <v>3</v>
       </c>
       <c r="I116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>20</v>
       </c>
@@ -5617,10 +5617,10 @@
         <v>3</v>
       </c>
       <c r="I117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>21</v>
       </c>
@@ -5646,10 +5646,10 @@
         <v>3</v>
       </c>
       <c r="I118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>22</v>
       </c>
@@ -5675,10 +5675,10 @@
         <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>23</v>
       </c>
@@ -5704,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="I120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>24</v>
       </c>
@@ -5733,10 +5733,10 @@
         <v>3</v>
       </c>
       <c r="I121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>25</v>
       </c>
@@ -5762,10 +5762,10 @@
         <v>3</v>
       </c>
       <c r="I122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>26</v>
       </c>
@@ -5791,10 +5791,10 @@
         <v>3</v>
       </c>
       <c r="I123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>27</v>
       </c>
@@ -5820,10 +5820,10 @@
         <v>3</v>
       </c>
       <c r="I124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>28</v>
       </c>
@@ -5849,10 +5849,10 @@
         <v>3</v>
       </c>
       <c r="I125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>29</v>
       </c>
@@ -5878,10 +5878,10 @@
         <v>3</v>
       </c>
       <c r="I126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>30</v>
       </c>
@@ -5907,10 +5907,10 @@
         <v>3</v>
       </c>
       <c r="I127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>31</v>
       </c>
@@ -5936,10 +5936,10 @@
         <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>32</v>
       </c>
@@ -5965,10 +5965,10 @@
         <v>3</v>
       </c>
       <c r="I129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>33</v>
       </c>
@@ -5994,10 +5994,10 @@
         <v>3</v>
       </c>
       <c r="I130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>34</v>
       </c>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="I131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>35</v>
       </c>
@@ -6052,10 +6052,10 @@
         <v>3</v>
       </c>
       <c r="I132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>36</v>
       </c>
@@ -6081,10 +6081,10 @@
         <v>3</v>
       </c>
       <c r="I133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>37</v>
       </c>
@@ -6110,10 +6110,10 @@
         <v>3</v>
       </c>
       <c r="I134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>38</v>
       </c>
@@ -6139,10 +6139,10 @@
         <v>3</v>
       </c>
       <c r="I135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>39</v>
       </c>
@@ -6168,10 +6168,10 @@
         <v>3</v>
       </c>
       <c r="I136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>40</v>
       </c>
@@ -6197,10 +6197,10 @@
         <v>3</v>
       </c>
       <c r="I137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>41</v>
       </c>
@@ -6226,10 +6226,10 @@
         <v>3</v>
       </c>
       <c r="I138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>42</v>
       </c>
@@ -6255,10 +6255,10 @@
         <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>43</v>
       </c>
@@ -6284,10 +6284,10 @@
         <v>3</v>
       </c>
       <c r="I140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>44</v>
       </c>
@@ -6313,10 +6313,10 @@
         <v>3</v>
       </c>
       <c r="I141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>45</v>
       </c>
@@ -6342,10 +6342,10 @@
         <v>3</v>
       </c>
       <c r="I142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>46</v>
       </c>
@@ -6371,10 +6371,10 @@
         <v>3</v>
       </c>
       <c r="I143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>47</v>
       </c>
@@ -6400,10 +6400,10 @@
         <v>3</v>
       </c>
       <c r="I144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>48</v>
       </c>
@@ -6429,10 +6429,10 @@
         <v>3</v>
       </c>
       <c r="I145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>49</v>
       </c>
@@ -6458,10 +6458,10 @@
         <v>3</v>
       </c>
       <c r="I146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>50</v>
       </c>
@@ -6487,10 +6487,10 @@
         <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>51</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>52</v>
       </c>
@@ -6548,12 +6548,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>129</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>130</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>131</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>132</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>133</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>134</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>135</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>136</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>137</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>138</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>139</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>140</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>141</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>142</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>143</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>144</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>145</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>146</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>147</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>148</v>
       </c>
@@ -6773,22 +6773,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -6814,10 +6814,10 @@
         <v>3</v>
       </c>
       <c r="I177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -6843,10 +6843,10 @@
         <v>3</v>
       </c>
       <c r="I178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>3</v>
       </c>
@@ -6872,10 +6872,10 @@
         <v>3</v>
       </c>
       <c r="I179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>4</v>
       </c>
@@ -6901,10 +6901,10 @@
         <v>3</v>
       </c>
       <c r="I180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>5</v>
       </c>
@@ -6930,10 +6930,10 @@
         <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>6</v>
       </c>
@@ -6959,10 +6959,10 @@
         <v>3</v>
       </c>
       <c r="I182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>7</v>
       </c>
@@ -6988,10 +6988,10 @@
         <v>3</v>
       </c>
       <c r="I183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>8</v>
       </c>
@@ -7017,10 +7017,10 @@
         <v>3</v>
       </c>
       <c r="I184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>9</v>
       </c>
@@ -7046,10 +7046,10 @@
         <v>3</v>
       </c>
       <c r="I185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>10</v>
       </c>
@@ -7075,10 +7075,10 @@
         <v>3</v>
       </c>
       <c r="I186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>11</v>
       </c>
@@ -7104,10 +7104,10 @@
         <v>3</v>
       </c>
       <c r="I187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>12</v>
       </c>
@@ -7133,10 +7133,10 @@
         <v>3</v>
       </c>
       <c r="I188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>13</v>
       </c>
@@ -7162,10 +7162,10 @@
         <v>3</v>
       </c>
       <c r="I189">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>14</v>
       </c>
@@ -7191,10 +7191,10 @@
         <v>3</v>
       </c>
       <c r="I190">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>15</v>
       </c>
@@ -7220,10 +7220,10 @@
         <v>3</v>
       </c>
       <c r="I191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>16</v>
       </c>
@@ -7249,10 +7249,10 @@
         <v>3</v>
       </c>
       <c r="I192">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>17</v>
       </c>
@@ -7278,10 +7278,10 @@
         <v>3</v>
       </c>
       <c r="I193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>18</v>
       </c>
@@ -7307,10 +7307,10 @@
         <v>3</v>
       </c>
       <c r="I194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>19</v>
       </c>
@@ -7336,10 +7336,10 @@
         <v>3</v>
       </c>
       <c r="I195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>20</v>
       </c>
@@ -7365,10 +7365,10 @@
         <v>3</v>
       </c>
       <c r="I196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>21</v>
       </c>
@@ -7394,10 +7394,10 @@
         <v>3</v>
       </c>
       <c r="I197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>22</v>
       </c>
@@ -7423,10 +7423,10 @@
         <v>3</v>
       </c>
       <c r="I198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>23</v>
       </c>
@@ -7452,10 +7452,10 @@
         <v>3</v>
       </c>
       <c r="I199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>24</v>
       </c>
@@ -7481,10 +7481,10 @@
         <v>3</v>
       </c>
       <c r="I200">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>25</v>
       </c>
@@ -7510,10 +7510,10 @@
         <v>3</v>
       </c>
       <c r="I201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>26</v>
       </c>
@@ -7539,10 +7539,10 @@
         <v>3</v>
       </c>
       <c r="I202">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>27</v>
       </c>
@@ -7568,10 +7568,10 @@
         <v>3</v>
       </c>
       <c r="I203">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>28</v>
       </c>
@@ -7597,10 +7597,10 @@
         <v>3</v>
       </c>
       <c r="I204">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>29</v>
       </c>
@@ -7626,10 +7626,10 @@
         <v>3</v>
       </c>
       <c r="I205">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>30</v>
       </c>
@@ -7655,10 +7655,10 @@
         <v>3</v>
       </c>
       <c r="I206">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>31</v>
       </c>
@@ -7684,10 +7684,10 @@
         <v>3</v>
       </c>
       <c r="I207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>32</v>
       </c>
@@ -7713,10 +7713,10 @@
         <v>3</v>
       </c>
       <c r="I208">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>33</v>
       </c>
@@ -7742,10 +7742,10 @@
         <v>3</v>
       </c>
       <c r="I209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>34</v>
       </c>
@@ -7771,10 +7771,10 @@
         <v>3</v>
       </c>
       <c r="I210">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>35</v>
       </c>
@@ -7800,10 +7800,10 @@
         <v>3</v>
       </c>
       <c r="I211">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>36</v>
       </c>
@@ -7829,10 +7829,10 @@
         <v>3</v>
       </c>
       <c r="I212">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>37</v>
       </c>
@@ -7858,10 +7858,10 @@
         <v>3</v>
       </c>
       <c r="I213">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>38</v>
       </c>
@@ -7890,12 +7890,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>129</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>130</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>131</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>132</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>133</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>134</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>135</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>136</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>137</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>138</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>139</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>140</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>141</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>142</v>
       </c>
@@ -8049,22 +8049,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>1</v>
       </c>
@@ -8090,10 +8090,10 @@
         <v>3</v>
       </c>
       <c r="I235">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -8119,10 +8119,10 @@
         <v>3</v>
       </c>
       <c r="I236">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>3</v>
       </c>
@@ -8148,10 +8148,10 @@
         <v>3</v>
       </c>
       <c r="I237">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>4</v>
       </c>
@@ -8177,10 +8177,10 @@
         <v>3</v>
       </c>
       <c r="I238">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>5</v>
       </c>
@@ -8206,10 +8206,10 @@
         <v>3</v>
       </c>
       <c r="I239">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>6</v>
       </c>
@@ -8235,10 +8235,10 @@
         <v>3</v>
       </c>
       <c r="I240">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -8264,10 +8264,10 @@
         <v>3</v>
       </c>
       <c r="I241">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>8</v>
       </c>
@@ -8293,10 +8293,10 @@
         <v>3</v>
       </c>
       <c r="I242">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>9</v>
       </c>
@@ -8322,10 +8322,10 @@
         <v>3</v>
       </c>
       <c r="I243">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>10</v>
       </c>
@@ -8351,10 +8351,10 @@
         <v>3</v>
       </c>
       <c r="I244">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>11</v>
       </c>
@@ -8380,10 +8380,10 @@
         <v>3</v>
       </c>
       <c r="I245">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>12</v>
       </c>
@@ -8409,10 +8409,10 @@
         <v>3</v>
       </c>
       <c r="I246">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>13</v>
       </c>
@@ -8438,10 +8438,10 @@
         <v>3</v>
       </c>
       <c r="I247">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>14</v>
       </c>
@@ -8467,10 +8467,10 @@
         <v>3</v>
       </c>
       <c r="I248">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>15</v>
       </c>
@@ -8496,10 +8496,10 @@
         <v>3</v>
       </c>
       <c r="I249">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>16</v>
       </c>
@@ -8525,10 +8525,10 @@
         <v>3</v>
       </c>
       <c r="I250">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>17</v>
       </c>
@@ -8554,10 +8554,10 @@
         <v>3</v>
       </c>
       <c r="I251">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>18</v>
       </c>
@@ -8583,10 +8583,10 @@
         <v>3</v>
       </c>
       <c r="I252">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>19</v>
       </c>
@@ -8612,10 +8612,10 @@
         <v>3</v>
       </c>
       <c r="I253">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>20</v>
       </c>
@@ -8641,10 +8641,10 @@
         <v>3</v>
       </c>
       <c r="I254">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>21</v>
       </c>
@@ -8670,10 +8670,10 @@
         <v>3</v>
       </c>
       <c r="I255">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>22</v>
       </c>
@@ -8699,10 +8699,10 @@
         <v>3</v>
       </c>
       <c r="I256">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>23</v>
       </c>
@@ -8728,10 +8728,10 @@
         <v>3</v>
       </c>
       <c r="I257">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A258" s="1">
         <v>24</v>
       </c>
@@ -8757,10 +8757,10 @@
         <v>3</v>
       </c>
       <c r="I258">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A259" s="1">
         <v>25</v>
       </c>
@@ -8786,10 +8786,10 @@
         <v>3</v>
       </c>
       <c r="I259">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A260" s="1">
         <v>26</v>
       </c>
@@ -8815,10 +8815,10 @@
         <v>3</v>
       </c>
       <c r="I260">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A261" s="1">
         <v>27</v>
       </c>
@@ -8844,10 +8844,10 @@
         <v>3</v>
       </c>
       <c r="I261">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A262" s="1">
         <v>28</v>
       </c>
@@ -8873,10 +8873,10 @@
         <v>3</v>
       </c>
       <c r="I262">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A263" s="1">
         <v>29</v>
       </c>
@@ -8902,10 +8902,10 @@
         <v>3</v>
       </c>
       <c r="I263">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A264" s="1">
         <v>30</v>
       </c>
@@ -8931,10 +8931,10 @@
         <v>3</v>
       </c>
       <c r="I264">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A265" s="1">
         <v>31</v>
       </c>
@@ -8960,10 +8960,10 @@
         <v>3</v>
       </c>
       <c r="I265">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A266" s="1">
         <v>32</v>
       </c>
@@ -8989,10 +8989,10 @@
         <v>3</v>
       </c>
       <c r="I266">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A267" s="1">
         <v>33</v>
       </c>
@@ -9018,10 +9018,10 @@
         <v>3</v>
       </c>
       <c r="I267">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A268" s="1">
         <v>34</v>
       </c>
@@ -9047,10 +9047,10 @@
         <v>3</v>
       </c>
       <c r="I268">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A269" s="1">
         <v>35</v>
       </c>
@@ -9076,10 +9076,10 @@
         <v>3</v>
       </c>
       <c r="I269">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A270" s="1">
         <v>36</v>
       </c>
@@ -9105,10 +9105,10 @@
         <v>3</v>
       </c>
       <c r="I270">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A271" s="1">
         <v>37</v>
       </c>
@@ -9134,10 +9134,10 @@
         <v>3</v>
       </c>
       <c r="I271">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A272" s="1">
         <v>38</v>
       </c>
@@ -9163,10 +9163,10 @@
         <v>3</v>
       </c>
       <c r="I272">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273" s="1">
         <v>39</v>
       </c>
@@ -9192,10 +9192,10 @@
         <v>3</v>
       </c>
       <c r="I273">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A274" s="1">
         <v>40</v>
       </c>
@@ -9221,10 +9221,10 @@
         <v>3</v>
       </c>
       <c r="I274">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="1">
         <v>41</v>
       </c>
@@ -9250,10 +9250,10 @@
         <v>3</v>
       </c>
       <c r="I275">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" s="1">
         <v>42</v>
       </c>
@@ -9279,10 +9279,10 @@
         <v>3</v>
       </c>
       <c r="I276">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277" s="1">
         <v>43</v>
       </c>
@@ -9308,10 +9308,10 @@
         <v>3</v>
       </c>
       <c r="I277">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="1">
         <v>44</v>
       </c>
@@ -9337,10 +9337,10 @@
         <v>3</v>
       </c>
       <c r="I278">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" s="1">
         <v>45</v>
       </c>
@@ -9366,10 +9366,10 @@
         <v>3</v>
       </c>
       <c r="I279">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280" s="1">
         <v>46</v>
       </c>
@@ -9395,10 +9395,10 @@
         <v>3</v>
       </c>
       <c r="I280">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281" s="1">
         <v>47</v>
       </c>
@@ -9424,10 +9424,10 @@
         <v>3</v>
       </c>
       <c r="I281">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282" s="1">
         <v>48</v>
       </c>
@@ -9453,10 +9453,10 @@
         <v>3</v>
       </c>
       <c r="I282">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A283" s="1">
         <v>49</v>
       </c>
@@ -9482,10 +9482,10 @@
         <v>3</v>
       </c>
       <c r="I283">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284" s="1">
         <v>50</v>
       </c>
@@ -9511,10 +9511,10 @@
         <v>3</v>
       </c>
       <c r="I284">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285" s="1">
         <v>51</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A286" s="1">
         <v>52</v>
       </c>
@@ -9572,12 +9572,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="1">
         <v>129</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="1">
         <v>130</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" s="1">
         <v>131</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" s="1">
         <v>132</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" s="1">
         <v>133</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="1">
         <v>134</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="1">
         <v>135</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="1">
         <v>136</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="1">
         <v>137</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="1">
         <v>138</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="1">
         <v>139</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="1">
         <v>140</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="1">
         <v>141</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="1">
         <v>142</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="1">
         <v>143</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="1">
         <v>144</v>
       </c>
@@ -9753,22 +9753,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="1">
         <v>1</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="1">
         <v>3</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="1">
         <v>4</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="1">
         <v>5</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="1">
         <v>6</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="1">
         <v>7</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="1">
         <v>8</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="1">
         <v>9</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="1">
         <v>10</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="1">
         <v>11</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="1">
         <v>12</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="1">
         <v>13</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="1">
         <v>14</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="1">
         <v>15</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="1">
         <v>16</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="1">
         <v>17</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="1">
         <v>18</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="1">
         <v>19</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="1">
         <v>20</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="1">
         <v>21</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="1">
         <v>22</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="1">
         <v>23</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="1">
         <v>24</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="1">
         <v>25</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="1">
         <v>26</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="1">
         <v>27</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="1">
         <v>28</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A338" s="1">
         <v>29</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A339" s="1">
         <v>30</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A340" s="1">
         <v>31</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A341" s="1">
         <v>32</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A342" s="1">
         <v>33</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A343" s="1">
         <v>34</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A344" s="1">
         <v>35</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A345" s="1">
         <v>36</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A346" s="1">
         <v>37</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A347" s="1">
         <v>38</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A348" s="1">
         <v>39</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A349" s="1">
         <v>40</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A350" s="1">
         <v>41</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A351" s="1">
         <v>42</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A352" s="1">
         <v>43</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A353" s="1">
         <v>44</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A354" s="1">
         <v>45</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A355" s="1">
         <v>46</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A356" s="1">
         <v>47</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A357" s="1">
         <v>48</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A358" s="1">
         <v>49</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A359" s="1">
         <v>50</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A360" s="1">
         <v>51</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A361" s="1">
         <v>52</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A362" s="1">
         <v>53</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A363" s="1">
         <v>54</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A364" s="1">
         <v>55</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A365" s="1">
         <v>56</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A366" s="1">
         <v>57</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A367" s="1">
         <v>58</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A368" s="1">
         <v>59</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A369" s="1">
         <v>60</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A370" s="1">
         <v>61</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A371" s="1">
         <v>62</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A372" s="1">
         <v>63</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A373" s="1">
         <v>64</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A374" s="1">
         <v>65</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A375" s="1">
         <v>66</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A376" s="1">
         <v>67</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A377" s="1">
         <v>68</v>
       </c>
@@ -11740,12 +11740,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A379" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A380" s="1">
         <v>129</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A381" s="1">
         <v>130</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A382" s="1">
         <v>131</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A383" s="1">
         <v>132</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A384" s="1">
         <v>133</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A385" s="1">
         <v>134</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A386" s="1">
         <v>135</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A387" s="1">
         <v>136</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A388" s="1">
         <v>137</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A389" s="1">
         <v>138</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A390" s="1">
         <v>139</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A391" s="1">
         <v>140</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A392" s="1">
         <v>141</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A393" s="1">
         <v>142</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A394" s="1">
         <v>143</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A395" s="1">
         <v>144</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A396" s="1">
         <v>145</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A397" s="1">
         <v>146</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A398" s="1">
         <v>147</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A399" s="1">
         <v>148</v>
       </c>
@@ -11965,22 +11965,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A404" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A405" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A406" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A407" s="1">
         <v>1</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A409" s="1">
         <v>3</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A410" s="1">
         <v>4</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A411" s="1">
         <v>5</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A412" s="1">
         <v>6</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A413" s="1">
         <v>7</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A414" s="1">
         <v>8</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A415" s="1">
         <v>9</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A416" s="1">
         <v>10</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A417" s="1">
         <v>11</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A418" s="1">
         <v>12</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A419" s="1">
         <v>13</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A420" s="1">
         <v>14</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A421" s="1">
         <v>15</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A422" s="1">
         <v>16</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A423" s="1">
         <v>17</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A424" s="1">
         <v>18</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A425" s="1">
         <v>19</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A426" s="1">
         <v>20</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A427" s="1">
         <v>21</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A428" s="1">
         <v>22</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A429" s="1">
         <v>23</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A430" s="1">
         <v>24</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A431" s="1">
         <v>25</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A432" s="1">
         <v>26</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A433" s="1">
         <v>27</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" s="1">
         <v>28</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A435" s="1">
         <v>29</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A436" s="1">
         <v>30</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A437" s="1">
         <v>31</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A438" s="1">
         <v>32</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A439" s="1">
         <v>33</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A440" s="1">
         <v>34</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A441" s="1">
         <v>35</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" s="1">
         <v>36</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" s="1">
         <v>37</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" s="1">
         <v>38</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" s="1">
         <v>39</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" s="1">
         <v>40</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" s="1">
         <v>41</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" s="1">
         <v>42</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" s="1">
         <v>43</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" s="1">
         <v>44</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" s="1">
         <v>45</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" s="1">
         <v>46</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" s="1">
         <v>47</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" s="1">
         <v>48</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" s="1">
         <v>49</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" s="1">
         <v>50</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" s="1">
         <v>51</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A458" s="1">
         <v>52</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A459" s="1">
         <v>53</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" s="1">
         <v>54</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" s="1">
         <v>55</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" s="1">
         <v>56</v>
       </c>
@@ -13604,13 +13604,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A465" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A466" s="1">
         <v>129</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A467" s="1">
         <v>130</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A468" s="1">
         <v>131</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A469" s="1">
         <v>132</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A470" s="1">
         <v>133</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A471" s="1">
         <v>134</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A472" s="1">
         <v>135</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A473" s="1">
         <v>136</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A474" s="1">
         <v>137</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A475" s="1">
         <v>138</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A476" s="1">
         <v>139</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A477" s="1">
         <v>140</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A478" s="1">
         <v>141</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A479" s="1">
         <v>142</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A480" s="1">
         <v>143</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A481" s="1">
         <v>144</v>
       </c>
@@ -13786,22 +13786,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A483" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A484" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A485" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A486" s="1">
         <v>1</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A487" s="1">
         <v>2</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A488" s="1">
         <v>3</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A489" s="1">
         <v>4</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A490" s="1">
         <v>5</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A491" s="1">
         <v>6</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A492" s="1">
         <v>7</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A493" s="1">
         <v>8</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A494" s="1">
         <v>9</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A495" s="1">
         <v>10</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A496" s="1">
         <v>11</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A497" s="1">
         <v>12</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A498" s="1">
         <v>13</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A499" s="1">
         <v>14</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A500" s="1">
         <v>15</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A501" s="1">
         <v>16</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A502" s="1">
         <v>17</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A503" s="1">
         <v>18</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A504" s="1">
         <v>19</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A505" s="1">
         <v>20</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A506" s="1">
         <v>21</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A507" s="1">
         <v>22</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A508" s="1">
         <v>23</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A509" s="1">
         <v>24</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A510" s="1">
         <v>25</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A511" s="1">
         <v>26</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A512" s="1">
         <v>27</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A513" s="1">
         <v>28</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A514" s="1">
         <v>29</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A515" s="1">
         <v>30</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A516" s="1">
         <v>31</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A517" s="1">
         <v>32</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A518" s="1">
         <v>33</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A519" s="1">
         <v>34</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A520" s="1">
         <v>35</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A521" s="1">
         <v>36</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A522" s="1">
         <v>37</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A523" s="1">
         <v>38</v>
       </c>
@@ -14903,12 +14903,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A525" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A526" s="1">
         <v>129</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A527" s="1">
         <v>130</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A528" s="1">
         <v>131</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A529" s="1">
         <v>132</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A530" s="1">
         <v>133</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A531" s="1">
         <v>134</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A532" s="1">
         <v>135</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A533" s="1">
         <v>136</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A534" s="1">
         <v>137</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A535" s="1">
         <v>138</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A536" s="1">
         <v>139</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A537" s="1">
         <v>140</v>
       </c>
@@ -15040,22 +15040,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A542" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A543" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A544" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A545" s="1">
         <v>1</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A546" s="1">
         <v>2</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A547" s="1">
         <v>3</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A548" s="1">
         <v>4</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A549" s="1">
         <v>5</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A550" s="1">
         <v>6</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A551" s="1">
         <v>7</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A552" s="1">
         <v>8</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A553" s="1">
         <v>9</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A554" s="1">
         <v>10</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A555" s="1">
         <v>11</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A556" s="1">
         <v>12</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A557" s="1">
         <v>13</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A558" s="1">
         <v>14</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A559" s="1">
         <v>15</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A560" s="1">
         <v>16</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A561" s="1">
         <v>17</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A562" s="1">
         <v>18</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A563" s="1">
         <v>19</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A564" s="1">
         <v>20</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A565" s="1">
         <v>21</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A566" s="1">
         <v>22</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A567" s="1">
         <v>23</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A568" s="1">
         <v>24</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A569" s="1">
         <v>25</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A570" s="1">
         <v>26</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A571" s="1">
         <v>27</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A572" s="1">
         <v>28</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A573" s="1">
         <v>29</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A574" s="1">
         <v>30</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A575" s="1">
         <v>31</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A576" s="1">
         <v>32</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A577" s="1">
         <v>33</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A578" s="1">
         <v>34</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A579" s="1">
         <v>35</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A580" s="1">
         <v>36</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A581" s="1">
         <v>37</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A582" s="1">
         <v>38</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A583" s="1">
         <v>39</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A584" s="1">
         <v>40</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A585" s="1">
         <v>41</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A586" s="1">
         <v>42</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A587" s="1">
         <v>43</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A588" s="1">
         <v>44</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A589" s="1">
         <v>45</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A590" s="1">
         <v>46</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A591" s="1">
         <v>47</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A592" s="1">
         <v>48</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A593" s="1">
         <v>49</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A594" s="1">
         <v>50</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A595" s="1">
         <v>51</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A596" s="1">
         <v>52</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A597" s="1">
         <v>53</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A598" s="1">
         <v>54</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A599" s="1">
         <v>55</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A600" s="1">
         <v>56</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A601" s="1">
         <v>57</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A602" s="1">
         <v>58</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A603" s="1">
         <v>59</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A604" s="1">
         <v>60</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A605" s="1">
         <v>61</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A606" s="1">
         <v>62</v>
       </c>
@@ -16853,12 +16853,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A608" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A609" s="1">
         <v>129</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A610" s="1">
         <v>130</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A611" s="1">
         <v>131</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A612" s="1">
         <v>132</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A613" s="1">
         <v>133</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A614" s="1">
         <v>134</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A615" s="1">
         <v>135</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A616" s="1">
         <v>136</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A617" s="1">
         <v>137</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A618" s="1">
         <v>138</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A619" s="1">
         <v>139</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A620" s="1">
         <v>140</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A621" s="1">
         <v>141</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A622" s="1">
         <v>142</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A623" s="1">
         <v>143</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A624" s="1">
         <v>144</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A625" s="1">
         <v>145</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A626" s="1">
         <v>146</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A627" s="1">
         <v>147</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A628" s="1">
         <v>148</v>
       </c>
@@ -17078,22 +17078,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A630" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A631" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A632" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A633" s="1">
         <v>1</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A634" s="1">
         <v>2</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A635" s="1">
         <v>3</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A636" s="1">
         <v>4</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A637" s="1">
         <v>5</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A638" s="1">
         <v>6</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A639" s="1">
         <v>7</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A640" s="1">
         <v>8</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A641" s="1">
         <v>9</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A642" s="1">
         <v>10</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A643" s="1">
         <v>11</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A644" s="1">
         <v>12</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A645" s="1">
         <v>13</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A646" s="1">
         <v>14</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A647" s="1">
         <v>15</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A648" s="1">
         <v>16</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A649" s="1">
         <v>17</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A650" s="1">
         <v>18</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A651" s="1">
         <v>19</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A652" s="1">
         <v>20</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A653" s="1">
         <v>21</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A654" s="1">
         <v>22</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A655" s="1">
         <v>23</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A656" s="1">
         <v>24</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A657" s="1">
         <v>25</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A658" s="1">
         <v>26</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A659" s="1">
         <v>27</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A660" s="1">
         <v>28</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A661" s="1">
         <v>29</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A662" s="1">
         <v>30</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A663" s="1">
         <v>31</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A664" s="1">
         <v>32</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A665" s="1">
         <v>33</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A666" s="1">
         <v>34</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A667" s="1">
         <v>35</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A668" s="1">
         <v>36</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A669" s="1">
         <v>37</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A670" s="1">
         <v>38</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A671" s="1">
         <v>39</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A672" s="1">
         <v>40</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A673" s="1">
         <v>41</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A674" s="1">
         <v>42</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A675" s="1">
         <v>43</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A676" s="1">
         <v>44</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A677" s="1">
         <v>45</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A678" s="1">
         <v>46</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A679" s="1">
         <v>47</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A680" s="1">
         <v>48</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A681" s="1">
         <v>49</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A682" s="1">
         <v>50</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A683" s="1">
         <v>51</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A684" s="1">
         <v>52</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A685" s="1">
         <v>53</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A686" s="1">
         <v>54</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A687" s="1">
         <v>55</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A688" s="1">
         <v>56</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A689" s="1">
         <v>57</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A690" s="1">
         <v>58</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A691" s="1">
         <v>59</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A692" s="1">
         <v>60</v>
       </c>
@@ -18833,12 +18833,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A694" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A695" s="1">
         <v>129</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A696" s="1">
         <v>130</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A697" s="1">
         <v>131</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A698" s="1">
         <v>132</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A699" s="1">
         <v>133</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A700" s="1">
         <v>134</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A701" s="1">
         <v>135</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A702" s="1">
         <v>136</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A703" s="1">
         <v>137</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A704" s="1">
         <v>138</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A705" s="1">
         <v>139</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A706" s="1">
         <v>140</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A707" s="1">
         <v>141</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A708" s="1">
         <v>142</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A709" s="1">
         <v>143</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A710" s="1">
         <v>144</v>
       </c>
@@ -19014,22 +19014,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A712" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A713" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A714" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A715" s="1">
         <v>1</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A716" s="1">
         <v>2</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A717" s="1">
         <v>3</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A718" s="1">
         <v>4</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A719" s="1">
         <v>5</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A720" s="1">
         <v>6</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A721" s="1">
         <v>7</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A722" s="1">
         <v>8</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A723" s="1">
         <v>9</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A724" s="1">
         <v>10</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A725" s="1">
         <v>11</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A726" s="1">
         <v>12</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A727" s="1">
         <v>13</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A728" s="1">
         <v>14</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A729" s="1">
         <v>15</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A730" s="1">
         <v>16</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A731" s="1">
         <v>17</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A732" s="1">
         <v>18</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A733" s="1">
         <v>19</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A734" s="1">
         <v>20</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A735" s="1">
         <v>21</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A736" s="1">
         <v>22</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A737" s="1">
         <v>23</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A738" s="1">
         <v>24</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A739" s="1">
         <v>25</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A740" s="1">
         <v>26</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A741" s="1">
         <v>27</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A742" s="1">
         <v>28</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A743" s="1">
         <v>29</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A744" s="1">
         <v>30</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A745" s="1">
         <v>31</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A746" s="1">
         <v>32</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A747" s="1">
         <v>33</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A748" s="1">
         <v>34</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A749" s="1">
         <v>35</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A750" s="1">
         <v>36</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A751" s="1">
         <v>37</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A752" s="1">
         <v>38</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A753" s="1">
         <v>39</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A754" s="1">
         <v>40</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A755" s="1">
         <v>41</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A756" s="1">
         <v>42</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A757" s="1">
         <v>43</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A758" s="1">
         <v>44</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A759" s="1">
         <v>45</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A760" s="1">
         <v>46</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A761" s="1">
         <v>47</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A762" s="1">
         <v>48</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A763" s="1">
         <v>49</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A764" s="1">
         <v>50</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A765" s="1">
         <v>51</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A766" s="1">
         <v>52</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A767" s="1">
         <v>53</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A768" s="1">
         <v>54</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A769" s="1">
         <v>55</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A770" s="1">
         <v>56</v>
       </c>
@@ -20653,12 +20653,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A773" s="1">
         <v>129</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A774" s="1">
         <v>130</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A775" s="1">
         <v>131</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A776" s="1">
         <v>132</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A777" s="1">
         <v>133</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A778" s="1">
         <v>134</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A779" s="1">
         <v>135</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A780" s="1">
         <v>136</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A781" s="1">
         <v>137</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A782" s="1">
         <v>138</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A783" s="1">
         <v>139</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A784" s="1">
         <v>140</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="785" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A785" s="1">
         <v>141</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A786" s="1">
         <v>142</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A787" s="1">
         <v>143</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A788" s="1">
         <v>144</v>
       </c>
@@ -20834,24 +20834,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A791" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A792" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A793" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C793" s="3"/>
       <c r="I793" s="3"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A794" s="1">
         <v>1</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A795" s="1">
         <v>2</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A796" s="1">
         <v>3</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A797" s="1">
         <v>4</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A798" s="1">
         <v>5</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A799" s="1">
         <v>6</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A800" s="1">
         <v>7</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A801" s="1">
         <v>8</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A802" s="1">
         <v>9</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A803" s="1">
         <v>10</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A804" s="1">
         <v>11</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A805" s="1">
         <v>12</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A806" s="1">
         <v>13</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A807" s="1">
         <v>14</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A808" s="1">
         <v>15</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A809" s="1">
         <v>16</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A810" s="1">
         <v>17</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A811" s="1">
         <v>18</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A812" s="1">
         <v>19</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A813" s="1">
         <v>20</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A814" s="1">
         <v>21</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A815" s="1">
         <v>22</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A816" s="1">
         <v>23</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A817" s="1">
         <v>24</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A818" s="1">
         <v>25</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A819" s="1">
         <v>26</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A820" s="1">
         <v>27</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A821" s="1">
         <v>28</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A822" s="1">
         <v>29</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A823" s="1">
         <v>30</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A824" s="1">
         <v>31</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A825" s="1">
         <v>32</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A826" s="1">
         <v>33</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A827" s="1">
         <v>34</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A828" s="1">
         <v>35</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A829" s="1">
         <v>36</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A830" s="1">
         <v>37</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A831" s="1">
         <v>38</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A832" s="1">
         <v>39</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A833" s="1">
         <v>40</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A834" s="1">
         <v>41</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A835" s="1">
         <v>42</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A836" s="1">
         <v>43</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A837" s="1">
         <v>44</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A838" s="1">
         <v>45</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A839" s="1">
         <v>46</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A840" s="1">
         <v>47</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A841" s="1">
         <v>48</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A842" s="1">
         <v>49</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A843" s="1">
         <v>50</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A844" s="1">
         <v>51</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A845" s="1">
         <v>52</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A846" s="1">
         <v>53</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A847" s="1">
         <v>54</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A848" s="1">
         <v>55</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A849" s="1">
         <v>56</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A850" s="1">
         <v>46</v>
       </c>
@@ -22504,7 +22504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A851" s="1">
         <v>47</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A852" s="1">
         <v>48</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A853" s="1">
         <v>49</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A854" s="1">
         <v>50</v>
       </c>
@@ -22620,7 +22620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A855" s="1">
         <v>57</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A856" s="1">
         <v>58</v>
       </c>
@@ -22678,18 +22678,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C857" s="3"/>
       <c r="I857" s="3"/>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A858" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C858" s="3"/>
       <c r="I858" s="3"/>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A859" s="1">
         <v>129</v>
       </c>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="I859" s="3"/>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A860" s="1">
         <v>130</v>
       </c>
@@ -22713,7 +22713,7 @@
       </c>
       <c r="I860" s="3"/>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A861" s="1">
         <v>131</v>
       </c>
@@ -22725,7 +22725,7 @@
       </c>
       <c r="I861" s="3"/>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A862" s="1">
         <v>132</v>
       </c>
@@ -22737,7 +22737,7 @@
       </c>
       <c r="I862" s="3"/>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A863" s="1">
         <v>133</v>
       </c>
@@ -22749,7 +22749,7 @@
       </c>
       <c r="I863" s="3"/>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A864" s="1">
         <v>134</v>
       </c>
@@ -22761,7 +22761,7 @@
       </c>
       <c r="I864" s="3"/>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A865" s="1">
         <v>135</v>
       </c>
@@ -22773,7 +22773,7 @@
       </c>
       <c r="I865" s="3"/>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A866" s="1">
         <v>136</v>
       </c>
@@ -22785,7 +22785,7 @@
       </c>
       <c r="I866" s="3"/>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A867" s="1">
         <v>137</v>
       </c>
@@ -22797,7 +22797,7 @@
       </c>
       <c r="I867" s="3"/>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A868" s="1">
         <v>138</v>
       </c>
@@ -22809,7 +22809,7 @@
       </c>
       <c r="I868" s="3"/>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A869" s="1">
         <v>139</v>
       </c>
@@ -22821,7 +22821,7 @@
       </c>
       <c r="I869" s="3"/>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A870" s="1">
         <v>140</v>
       </c>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="I870" s="3"/>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A871" s="1">
         <v>141</v>
       </c>
@@ -22845,7 +22845,7 @@
       </c>
       <c r="I871" s="3"/>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A872" s="1">
         <v>142</v>
       </c>
@@ -22857,7 +22857,7 @@
       </c>
       <c r="I872" s="3"/>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A873" s="1">
         <v>143</v>
       </c>
@@ -22869,7 +22869,7 @@
       </c>
       <c r="I873" s="3"/>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A874" s="1">
         <v>144</v>
       </c>
@@ -22881,7 +22881,7 @@
       </c>
       <c r="I874" s="3"/>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A875" s="1">
         <v>145</v>
       </c>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A876" s="1">
         <v>146</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A877" s="1">
         <v>147</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A878" s="1">
         <v>148</v>
       </c>

--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM1_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM1_USM_LGM_SerialNumber.xlsx
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I284" sqref="I284"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I360" sqref="I360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9794,7 +9794,7 @@
         <v>3</v>
       </c>
       <c r="I310">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.4">
@@ -9823,7 +9823,7 @@
         <v>3</v>
       </c>
       <c r="I311">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.4">
@@ -9852,7 +9852,7 @@
         <v>3</v>
       </c>
       <c r="I312">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.4">
@@ -9881,7 +9881,7 @@
         <v>3</v>
       </c>
       <c r="I313">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.4">
@@ -9910,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="I314">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.4">
@@ -9939,7 +9939,7 @@
         <v>3</v>
       </c>
       <c r="I315">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.4">
@@ -9968,7 +9968,7 @@
         <v>3</v>
       </c>
       <c r="I316">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.4">
@@ -9997,7 +9997,7 @@
         <v>3</v>
       </c>
       <c r="I317">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.4">
@@ -10026,7 +10026,7 @@
         <v>3</v>
       </c>
       <c r="I318">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.4">
@@ -10055,7 +10055,7 @@
         <v>3</v>
       </c>
       <c r="I319">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.4">
@@ -10084,7 +10084,7 @@
         <v>3</v>
       </c>
       <c r="I320">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.4">
@@ -10113,7 +10113,7 @@
         <v>3</v>
       </c>
       <c r="I321">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.4">
@@ -10142,7 +10142,7 @@
         <v>3</v>
       </c>
       <c r="I322">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.4">
@@ -10171,7 +10171,7 @@
         <v>3</v>
       </c>
       <c r="I323">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.4">
@@ -10200,7 +10200,7 @@
         <v>3</v>
       </c>
       <c r="I324">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.4">
@@ -10229,7 +10229,7 @@
         <v>3</v>
       </c>
       <c r="I325">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.4">
@@ -10258,7 +10258,7 @@
         <v>3</v>
       </c>
       <c r="I326">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.4">
@@ -10287,7 +10287,7 @@
         <v>3</v>
       </c>
       <c r="I327">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.4">
@@ -10316,7 +10316,7 @@
         <v>3</v>
       </c>
       <c r="I328">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.4">
@@ -10345,7 +10345,7 @@
         <v>3</v>
       </c>
       <c r="I329">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.4">
@@ -10374,7 +10374,7 @@
         <v>3</v>
       </c>
       <c r="I330">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.4">
@@ -10403,7 +10403,7 @@
         <v>3</v>
       </c>
       <c r="I331">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.4">
@@ -10432,7 +10432,7 @@
         <v>3</v>
       </c>
       <c r="I332">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.4">
@@ -10461,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="I333">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.4">
@@ -10490,7 +10490,7 @@
         <v>3</v>
       </c>
       <c r="I334">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.4">
@@ -10519,7 +10519,7 @@
         <v>3</v>
       </c>
       <c r="I335">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.4">
@@ -10548,7 +10548,7 @@
         <v>3</v>
       </c>
       <c r="I336">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.4">
@@ -10577,7 +10577,7 @@
         <v>3</v>
       </c>
       <c r="I337">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.4">
@@ -10606,7 +10606,7 @@
         <v>3</v>
       </c>
       <c r="I338">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.4">
@@ -10635,7 +10635,7 @@
         <v>3</v>
       </c>
       <c r="I339">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.4">
@@ -10664,7 +10664,7 @@
         <v>3</v>
       </c>
       <c r="I340">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.4">
@@ -10693,7 +10693,7 @@
         <v>3</v>
       </c>
       <c r="I341">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.4">
@@ -10722,7 +10722,7 @@
         <v>3</v>
       </c>
       <c r="I342">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.4">
@@ -10751,7 +10751,7 @@
         <v>3</v>
       </c>
       <c r="I343">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.4">
@@ -10780,7 +10780,7 @@
         <v>3</v>
       </c>
       <c r="I344">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.4">
@@ -10809,7 +10809,7 @@
         <v>3</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.4">
@@ -10838,7 +10838,7 @@
         <v>3</v>
       </c>
       <c r="I346">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.4">
@@ -10867,7 +10867,7 @@
         <v>3</v>
       </c>
       <c r="I347">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.4">
@@ -10896,7 +10896,7 @@
         <v>3</v>
       </c>
       <c r="I348">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.4">
@@ -10925,7 +10925,7 @@
         <v>3</v>
       </c>
       <c r="I349">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.4">
@@ -10954,7 +10954,7 @@
         <v>3</v>
       </c>
       <c r="I350">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.4">
@@ -10983,7 +10983,7 @@
         <v>3</v>
       </c>
       <c r="I351">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.4">
@@ -11012,7 +11012,7 @@
         <v>3</v>
       </c>
       <c r="I352">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.4">
@@ -11041,7 +11041,7 @@
         <v>3</v>
       </c>
       <c r="I353">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.4">
@@ -11070,7 +11070,7 @@
         <v>3</v>
       </c>
       <c r="I354">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.4">
@@ -11099,7 +11099,7 @@
         <v>3</v>
       </c>
       <c r="I355">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.4">
@@ -11128,7 +11128,7 @@
         <v>3</v>
       </c>
       <c r="I356">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.4">
@@ -11157,7 +11157,7 @@
         <v>3</v>
       </c>
       <c r="I357">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.4">
@@ -11186,7 +11186,7 @@
         <v>3</v>
       </c>
       <c r="I358">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.4">
@@ -11215,7 +11215,7 @@
         <v>3</v>
       </c>
       <c r="I359">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.4">
@@ -12006,7 +12006,7 @@
         <v>3</v>
       </c>
       <c r="I407">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.4">
@@ -12035,7 +12035,7 @@
         <v>3</v>
       </c>
       <c r="I408">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.4">
@@ -12064,7 +12064,7 @@
         <v>3</v>
       </c>
       <c r="I409">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.4">
@@ -12093,7 +12093,7 @@
         <v>3</v>
       </c>
       <c r="I410">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.4">
@@ -12122,7 +12122,7 @@
         <v>3</v>
       </c>
       <c r="I411">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.4">
@@ -12151,7 +12151,7 @@
         <v>3</v>
       </c>
       <c r="I412">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.4">
@@ -12180,7 +12180,7 @@
         <v>3</v>
       </c>
       <c r="I413">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.4">
@@ -12209,7 +12209,7 @@
         <v>3</v>
       </c>
       <c r="I414">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.4">
@@ -12238,7 +12238,7 @@
         <v>3</v>
       </c>
       <c r="I415">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.4">
@@ -12267,7 +12267,7 @@
         <v>3</v>
       </c>
       <c r="I416">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.4">
@@ -12296,7 +12296,7 @@
         <v>3</v>
       </c>
       <c r="I417">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.4">
@@ -12325,7 +12325,7 @@
         <v>3</v>
       </c>
       <c r="I418">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.4">
@@ -12354,7 +12354,7 @@
         <v>3</v>
       </c>
       <c r="I419">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.4">
@@ -12383,7 +12383,7 @@
         <v>3</v>
       </c>
       <c r="I420">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.4">
@@ -12412,7 +12412,7 @@
         <v>3</v>
       </c>
       <c r="I421">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.4">
@@ -12441,7 +12441,7 @@
         <v>3</v>
       </c>
       <c r="I422">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.4">
@@ -12470,7 +12470,7 @@
         <v>3</v>
       </c>
       <c r="I423">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.4">
@@ -12499,7 +12499,7 @@
         <v>3</v>
       </c>
       <c r="I424">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.4">
@@ -12528,7 +12528,7 @@
         <v>3</v>
       </c>
       <c r="I425">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.4">
@@ -12557,7 +12557,7 @@
         <v>3</v>
       </c>
       <c r="I426">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.4">
@@ -12586,7 +12586,7 @@
         <v>3</v>
       </c>
       <c r="I427">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.4">
@@ -12615,7 +12615,7 @@
         <v>3</v>
       </c>
       <c r="I428">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.4">
@@ -12644,7 +12644,7 @@
         <v>3</v>
       </c>
       <c r="I429">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.4">
@@ -12673,7 +12673,7 @@
         <v>3</v>
       </c>
       <c r="I430">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.4">
@@ -12702,7 +12702,7 @@
         <v>3</v>
       </c>
       <c r="I431">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="432" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12731,7 +12731,7 @@
         <v>3</v>
       </c>
       <c r="I432">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12760,7 +12760,7 @@
         <v>3</v>
       </c>
       <c r="I433">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12789,7 +12789,7 @@
         <v>3</v>
       </c>
       <c r="I434">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12818,7 +12818,7 @@
         <v>3</v>
       </c>
       <c r="I435">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12847,7 +12847,7 @@
         <v>3</v>
       </c>
       <c r="I436">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12876,7 +12876,7 @@
         <v>3</v>
       </c>
       <c r="I437">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12905,7 +12905,7 @@
         <v>3</v>
       </c>
       <c r="I438">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="439" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12934,7 +12934,7 @@
         <v>3</v>
       </c>
       <c r="I439">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="440" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12963,7 +12963,7 @@
         <v>3</v>
       </c>
       <c r="I440">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="441" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12992,7 +12992,7 @@
         <v>3</v>
       </c>
       <c r="I441">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="442" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13021,7 +13021,7 @@
         <v>3</v>
       </c>
       <c r="I442">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="443" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13050,7 +13050,7 @@
         <v>3</v>
       </c>
       <c r="I443">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="444" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13079,7 +13079,7 @@
         <v>3</v>
       </c>
       <c r="I444">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13108,7 +13108,7 @@
         <v>3</v>
       </c>
       <c r="I445">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="446" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13137,7 +13137,7 @@
         <v>3</v>
       </c>
       <c r="I446">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="447" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13166,7 +13166,7 @@
         <v>3</v>
       </c>
       <c r="I447">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="448" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="I448">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13224,7 +13224,7 @@
         <v>3</v>
       </c>
       <c r="I449">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13253,7 +13253,7 @@
         <v>3</v>
       </c>
       <c r="I450">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13282,7 +13282,7 @@
         <v>3</v>
       </c>
       <c r="I451">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13311,7 +13311,7 @@
         <v>3</v>
       </c>
       <c r="I452">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13340,7 +13340,7 @@
         <v>3</v>
       </c>
       <c r="I453">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13369,7 +13369,7 @@
         <v>3</v>
       </c>
       <c r="I454">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13398,7 +13398,7 @@
         <v>3</v>
       </c>
       <c r="I455">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13427,7 +13427,7 @@
         <v>3</v>
       </c>
       <c r="I456">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13456,7 +13456,7 @@
         <v>3</v>
       </c>
       <c r="I457">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13485,7 +13485,7 @@
         <v>3</v>
       </c>
       <c r="I458">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13514,7 +13514,7 @@
         <v>3</v>
       </c>
       <c r="I459">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13543,7 +13543,7 @@
         <v>3</v>
       </c>
       <c r="I460">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -13827,7 +13827,7 @@
         <v>3</v>
       </c>
       <c r="I486">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.4">
@@ -13856,7 +13856,7 @@
         <v>3</v>
       </c>
       <c r="I487">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.4">
@@ -13885,7 +13885,7 @@
         <v>3</v>
       </c>
       <c r="I488">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.4">
@@ -13914,7 +13914,7 @@
         <v>3</v>
       </c>
       <c r="I489">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.4">
@@ -13943,7 +13943,7 @@
         <v>3</v>
       </c>
       <c r="I490">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.4">
@@ -13972,7 +13972,7 @@
         <v>3</v>
       </c>
       <c r="I491">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.4">
@@ -14001,7 +14001,7 @@
         <v>3</v>
       </c>
       <c r="I492">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.4">
@@ -14030,7 +14030,7 @@
         <v>3</v>
       </c>
       <c r="I493">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.4">
@@ -14059,7 +14059,7 @@
         <v>3</v>
       </c>
       <c r="I494">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.4">
@@ -14088,7 +14088,7 @@
         <v>3</v>
       </c>
       <c r="I495">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.4">
@@ -14117,7 +14117,7 @@
         <v>3</v>
       </c>
       <c r="I496">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.4">
@@ -14146,7 +14146,7 @@
         <v>3</v>
       </c>
       <c r="I497">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.4">
@@ -14175,7 +14175,7 @@
         <v>3</v>
       </c>
       <c r="I498">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.4">
@@ -14204,7 +14204,7 @@
         <v>3</v>
       </c>
       <c r="I499">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.4">
@@ -14233,7 +14233,7 @@
         <v>3</v>
       </c>
       <c r="I500">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.4">
@@ -14262,7 +14262,7 @@
         <v>3</v>
       </c>
       <c r="I501">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.4">
@@ -14291,7 +14291,7 @@
         <v>3</v>
       </c>
       <c r="I502">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.4">
@@ -14320,7 +14320,7 @@
         <v>3</v>
       </c>
       <c r="I503">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.4">
@@ -14349,7 +14349,7 @@
         <v>3</v>
       </c>
       <c r="I504">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.4">
@@ -14378,7 +14378,7 @@
         <v>3</v>
       </c>
       <c r="I505">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.4">
@@ -14407,7 +14407,7 @@
         <v>3</v>
       </c>
       <c r="I506">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.4">
@@ -14436,7 +14436,7 @@
         <v>3</v>
       </c>
       <c r="I507">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.4">
@@ -14465,7 +14465,7 @@
         <v>3</v>
       </c>
       <c r="I508">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.4">
@@ -14494,7 +14494,7 @@
         <v>3</v>
       </c>
       <c r="I509">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.4">
@@ -14523,7 +14523,7 @@
         <v>3</v>
       </c>
       <c r="I510">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.4">
@@ -14552,7 +14552,7 @@
         <v>3</v>
       </c>
       <c r="I511">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.4">
@@ -14581,7 +14581,7 @@
         <v>3</v>
       </c>
       <c r="I512">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.4">
@@ -14610,7 +14610,7 @@
         <v>3</v>
       </c>
       <c r="I513">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.4">
@@ -14639,7 +14639,7 @@
         <v>3</v>
       </c>
       <c r="I514">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.4">
@@ -14668,7 +14668,7 @@
         <v>3</v>
       </c>
       <c r="I515">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.4">
@@ -14697,7 +14697,7 @@
         <v>3</v>
       </c>
       <c r="I516">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.4">
@@ -14726,7 +14726,7 @@
         <v>3</v>
       </c>
       <c r="I517">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.4">
@@ -14755,7 +14755,7 @@
         <v>3</v>
       </c>
       <c r="I518">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.4">
@@ -14784,7 +14784,7 @@
         <v>3</v>
       </c>
       <c r="I519">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.4">
@@ -14813,7 +14813,7 @@
         <v>3</v>
       </c>
       <c r="I520">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.4">
@@ -15081,7 +15081,7 @@
         <v>3</v>
       </c>
       <c r="I545">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="546" spans="1:9" x14ac:dyDescent="0.4">
@@ -15110,7 +15110,7 @@
         <v>3</v>
       </c>
       <c r="I546">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.4">
@@ -15139,7 +15139,7 @@
         <v>3</v>
       </c>
       <c r="I547">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="548" spans="1:9" x14ac:dyDescent="0.4">
@@ -15168,7 +15168,7 @@
         <v>3</v>
       </c>
       <c r="I548">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.4">
@@ -15197,7 +15197,7 @@
         <v>3</v>
       </c>
       <c r="I549">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="550" spans="1:9" x14ac:dyDescent="0.4">
@@ -15226,7 +15226,7 @@
         <v>3</v>
       </c>
       <c r="I550">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.4">
@@ -15255,7 +15255,7 @@
         <v>3</v>
       </c>
       <c r="I551">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="552" spans="1:9" x14ac:dyDescent="0.4">
@@ -15284,7 +15284,7 @@
         <v>3</v>
       </c>
       <c r="I552">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.4">
@@ -15313,7 +15313,7 @@
         <v>3</v>
       </c>
       <c r="I553">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.4">
@@ -15342,7 +15342,7 @@
         <v>3</v>
       </c>
       <c r="I554">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="555" spans="1:9" x14ac:dyDescent="0.4">
@@ -15371,7 +15371,7 @@
         <v>3</v>
       </c>
       <c r="I555">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="556" spans="1:9" x14ac:dyDescent="0.4">
@@ -15400,7 +15400,7 @@
         <v>3</v>
       </c>
       <c r="I556">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.4">
@@ -15429,7 +15429,7 @@
         <v>3</v>
       </c>
       <c r="I557">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="558" spans="1:9" x14ac:dyDescent="0.4">
@@ -15458,7 +15458,7 @@
         <v>3</v>
       </c>
       <c r="I558">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="559" spans="1:9" x14ac:dyDescent="0.4">
@@ -15487,7 +15487,7 @@
         <v>3</v>
       </c>
       <c r="I559">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="560" spans="1:9" x14ac:dyDescent="0.4">
@@ -15516,7 +15516,7 @@
         <v>3</v>
       </c>
       <c r="I560">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="561" spans="1:9" x14ac:dyDescent="0.4">
@@ -15545,7 +15545,7 @@
         <v>3</v>
       </c>
       <c r="I561">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="562" spans="1:9" x14ac:dyDescent="0.4">
@@ -15574,7 +15574,7 @@
         <v>3</v>
       </c>
       <c r="I562">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="563" spans="1:9" x14ac:dyDescent="0.4">
@@ -15603,7 +15603,7 @@
         <v>3</v>
       </c>
       <c r="I563">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="564" spans="1:9" x14ac:dyDescent="0.4">
@@ -15632,7 +15632,7 @@
         <v>3</v>
       </c>
       <c r="I564">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="565" spans="1:9" x14ac:dyDescent="0.4">
@@ -15661,7 +15661,7 @@
         <v>3</v>
       </c>
       <c r="I565">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566" spans="1:9" x14ac:dyDescent="0.4">
@@ -15690,7 +15690,7 @@
         <v>3</v>
       </c>
       <c r="I566">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:9" x14ac:dyDescent="0.4">
@@ -15719,7 +15719,7 @@
         <v>3</v>
       </c>
       <c r="I567">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:9" x14ac:dyDescent="0.4">
@@ -15748,7 +15748,7 @@
         <v>3</v>
       </c>
       <c r="I568">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="569" spans="1:9" x14ac:dyDescent="0.4">
@@ -15777,7 +15777,7 @@
         <v>3</v>
       </c>
       <c r="I569">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="570" spans="1:9" x14ac:dyDescent="0.4">
@@ -15806,7 +15806,7 @@
         <v>3</v>
       </c>
       <c r="I570">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="571" spans="1:9" x14ac:dyDescent="0.4">
@@ -15835,7 +15835,7 @@
         <v>3</v>
       </c>
       <c r="I571">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="572" spans="1:9" x14ac:dyDescent="0.4">
@@ -15864,7 +15864,7 @@
         <v>3</v>
       </c>
       <c r="I572">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="573" spans="1:9" x14ac:dyDescent="0.4">
@@ -15893,7 +15893,7 @@
         <v>3</v>
       </c>
       <c r="I573">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="574" spans="1:9" x14ac:dyDescent="0.4">
@@ -15922,7 +15922,7 @@
         <v>3</v>
       </c>
       <c r="I574">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="575" spans="1:9" x14ac:dyDescent="0.4">
@@ -15951,7 +15951,7 @@
         <v>3</v>
       </c>
       <c r="I575">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="576" spans="1:9" x14ac:dyDescent="0.4">
@@ -15980,7 +15980,7 @@
         <v>3</v>
       </c>
       <c r="I576">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.4">
@@ -16009,7 +16009,7 @@
         <v>3</v>
       </c>
       <c r="I577">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.4">
@@ -16038,7 +16038,7 @@
         <v>3</v>
       </c>
       <c r="I578">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.4">
@@ -16067,7 +16067,7 @@
         <v>3</v>
       </c>
       <c r="I579">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.4">
@@ -16096,7 +16096,7 @@
         <v>3</v>
       </c>
       <c r="I580">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.4">
@@ -16125,7 +16125,7 @@
         <v>3</v>
       </c>
       <c r="I581">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.4">
@@ -16154,7 +16154,7 @@
         <v>3</v>
       </c>
       <c r="I582">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.4">
@@ -16183,7 +16183,7 @@
         <v>3</v>
       </c>
       <c r="I583">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.4">
@@ -16212,7 +16212,7 @@
         <v>3</v>
       </c>
       <c r="I584">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.4">
@@ -16241,7 +16241,7 @@
         <v>3</v>
       </c>
       <c r="I585">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.4">
@@ -16270,7 +16270,7 @@
         <v>3</v>
       </c>
       <c r="I586">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.4">
@@ -16299,7 +16299,7 @@
         <v>3</v>
       </c>
       <c r="I587">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.4">
@@ -16328,7 +16328,7 @@
         <v>3</v>
       </c>
       <c r="I588">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.4">
@@ -16357,7 +16357,7 @@
         <v>3</v>
       </c>
       <c r="I589">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.4">
@@ -16386,7 +16386,7 @@
         <v>3</v>
       </c>
       <c r="I590">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.4">
@@ -16415,7 +16415,7 @@
         <v>3</v>
       </c>
       <c r="I591">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.4">
@@ -16444,7 +16444,7 @@
         <v>3</v>
       </c>
       <c r="I592">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.4">
@@ -16473,7 +16473,7 @@
         <v>3</v>
       </c>
       <c r="I593">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.4">
@@ -16502,7 +16502,7 @@
         <v>3</v>
       </c>
       <c r="I594">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.4">
@@ -16531,7 +16531,7 @@
         <v>3</v>
       </c>
       <c r="I595">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.4">
@@ -16560,7 +16560,7 @@
         <v>3</v>
       </c>
       <c r="I596">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.4">
@@ -16589,7 +16589,7 @@
         <v>3</v>
       </c>
       <c r="I597">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.4">
@@ -16618,7 +16618,7 @@
         <v>3</v>
       </c>
       <c r="I598">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.4">
@@ -16647,7 +16647,7 @@
         <v>3</v>
       </c>
       <c r="I599">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.4">
@@ -16676,7 +16676,7 @@
         <v>3</v>
       </c>
       <c r="I600">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.4">
@@ -16705,7 +16705,7 @@
         <v>3</v>
       </c>
       <c r="I601">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.4">
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="I602">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.4">
@@ -16763,7 +16763,7 @@
         <v>3</v>
       </c>
       <c r="I603">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.4">
@@ -16792,7 +16792,7 @@
         <v>3</v>
       </c>
       <c r="I604">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.4">
@@ -17119,7 +17119,7 @@
         <v>3</v>
       </c>
       <c r="I633">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.4">
@@ -17148,7 +17148,7 @@
         <v>3</v>
       </c>
       <c r="I634">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.4">
@@ -17177,7 +17177,7 @@
         <v>3</v>
       </c>
       <c r="I635">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.4">
@@ -17206,7 +17206,7 @@
         <v>3</v>
       </c>
       <c r="I636">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.4">
@@ -17235,7 +17235,7 @@
         <v>3</v>
       </c>
       <c r="I637">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.4">
@@ -17264,7 +17264,7 @@
         <v>3</v>
       </c>
       <c r="I638">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.4">
@@ -17293,7 +17293,7 @@
         <v>3</v>
       </c>
       <c r="I639">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.4">
@@ -17322,7 +17322,7 @@
         <v>3</v>
       </c>
       <c r="I640">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.4">
@@ -17351,7 +17351,7 @@
         <v>3</v>
       </c>
       <c r="I641">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.4">
@@ -17380,7 +17380,7 @@
         <v>3</v>
       </c>
       <c r="I642">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.4">
@@ -17409,7 +17409,7 @@
         <v>3</v>
       </c>
       <c r="I643">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.4">
@@ -17438,7 +17438,7 @@
         <v>3</v>
       </c>
       <c r="I644">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.4">
@@ -17467,7 +17467,7 @@
         <v>3</v>
       </c>
       <c r="I645">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.4">
@@ -17496,7 +17496,7 @@
         <v>3</v>
       </c>
       <c r="I646">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.4">
@@ -17525,7 +17525,7 @@
         <v>3</v>
       </c>
       <c r="I647">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.4">
@@ -17554,7 +17554,7 @@
         <v>3</v>
       </c>
       <c r="I648">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.4">
@@ -17583,7 +17583,7 @@
         <v>3</v>
       </c>
       <c r="I649">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.4">
@@ -17612,7 +17612,7 @@
         <v>3</v>
       </c>
       <c r="I650">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.4">
@@ -17641,7 +17641,7 @@
         <v>3</v>
       </c>
       <c r="I651">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.4">
@@ -17670,7 +17670,7 @@
         <v>3</v>
       </c>
       <c r="I652">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.4">
@@ -17699,7 +17699,7 @@
         <v>3</v>
       </c>
       <c r="I653">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.4">
@@ -17728,7 +17728,7 @@
         <v>3</v>
       </c>
       <c r="I654">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.4">
@@ -17757,7 +17757,7 @@
         <v>3</v>
       </c>
       <c r="I655">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.4">
@@ -17786,7 +17786,7 @@
         <v>3</v>
       </c>
       <c r="I656">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.4">
@@ -17815,7 +17815,7 @@
         <v>3</v>
       </c>
       <c r="I657">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.4">
@@ -17844,7 +17844,7 @@
         <v>3</v>
       </c>
       <c r="I658">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.4">
@@ -17873,7 +17873,7 @@
         <v>3</v>
       </c>
       <c r="I659">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.4">
@@ -17902,7 +17902,7 @@
         <v>3</v>
       </c>
       <c r="I660">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.4">
@@ -17931,7 +17931,7 @@
         <v>3</v>
       </c>
       <c r="I661">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.4">
@@ -17960,7 +17960,7 @@
         <v>3</v>
       </c>
       <c r="I662">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.4">
@@ -17989,7 +17989,7 @@
         <v>3</v>
       </c>
       <c r="I663">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.4">
@@ -18018,7 +18018,7 @@
         <v>3</v>
       </c>
       <c r="I664">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.4">
@@ -18047,7 +18047,7 @@
         <v>3</v>
       </c>
       <c r="I665">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.4">
@@ -18076,7 +18076,7 @@
         <v>3</v>
       </c>
       <c r="I666">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.4">
@@ -18105,7 +18105,7 @@
         <v>3</v>
       </c>
       <c r="I667">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.4">
@@ -18134,7 +18134,7 @@
         <v>3</v>
       </c>
       <c r="I668">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.4">
@@ -18163,7 +18163,7 @@
         <v>3</v>
       </c>
       <c r="I669">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.4">
@@ -18192,7 +18192,7 @@
         <v>3</v>
       </c>
       <c r="I670">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.4">
@@ -18221,7 +18221,7 @@
         <v>3</v>
       </c>
       <c r="I671">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.4">
@@ -18250,7 +18250,7 @@
         <v>3</v>
       </c>
       <c r="I672">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.4">
@@ -18279,7 +18279,7 @@
         <v>3</v>
       </c>
       <c r="I673">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.4">
@@ -18308,7 +18308,7 @@
         <v>3</v>
       </c>
       <c r="I674">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.4">
@@ -18337,7 +18337,7 @@
         <v>3</v>
       </c>
       <c r="I675">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.4">
@@ -18366,7 +18366,7 @@
         <v>3</v>
       </c>
       <c r="I676">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.4">
@@ -18395,7 +18395,7 @@
         <v>3</v>
       </c>
       <c r="I677">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.4">
@@ -18424,7 +18424,7 @@
         <v>3</v>
       </c>
       <c r="I678">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.4">
@@ -18453,7 +18453,7 @@
         <v>3</v>
       </c>
       <c r="I679">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.4">
@@ -18482,7 +18482,7 @@
         <v>3</v>
       </c>
       <c r="I680">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.4">
@@ -18511,7 +18511,7 @@
         <v>3</v>
       </c>
       <c r="I681">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.4">
@@ -18540,7 +18540,7 @@
         <v>3</v>
       </c>
       <c r="I682">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.4">
@@ -18569,7 +18569,7 @@
         <v>3</v>
       </c>
       <c r="I683">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.4">
@@ -18598,7 +18598,7 @@
         <v>3</v>
       </c>
       <c r="I684">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.4">
@@ -18627,7 +18627,7 @@
         <v>3</v>
       </c>
       <c r="I685">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.4">
@@ -18656,7 +18656,7 @@
         <v>3</v>
       </c>
       <c r="I686">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.4">
@@ -18685,7 +18685,7 @@
         <v>3</v>
       </c>
       <c r="I687">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.4">
@@ -18714,7 +18714,7 @@
         <v>3</v>
       </c>
       <c r="I688">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.4">
@@ -18743,7 +18743,7 @@
         <v>3</v>
       </c>
       <c r="I689">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.4">
@@ -18772,7 +18772,7 @@
         <v>3</v>
       </c>
       <c r="I690">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.4">
@@ -19055,7 +19055,7 @@
         <v>3</v>
       </c>
       <c r="I715">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.4">
@@ -19084,7 +19084,7 @@
         <v>3</v>
       </c>
       <c r="I716">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.4">
@@ -19113,7 +19113,7 @@
         <v>3</v>
       </c>
       <c r="I717">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.4">
@@ -19142,7 +19142,7 @@
         <v>3</v>
       </c>
       <c r="I718">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.4">
@@ -19171,7 +19171,7 @@
         <v>3</v>
       </c>
       <c r="I719">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.4">
@@ -19200,7 +19200,7 @@
         <v>3</v>
       </c>
       <c r="I720">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.4">
@@ -19229,7 +19229,7 @@
         <v>3</v>
       </c>
       <c r="I721">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.4">
@@ -19258,7 +19258,7 @@
         <v>3</v>
       </c>
       <c r="I722">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="723" spans="1:9" x14ac:dyDescent="0.4">
@@ -19287,7 +19287,7 @@
         <v>3</v>
       </c>
       <c r="I723">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="724" spans="1:9" x14ac:dyDescent="0.4">
@@ -19316,7 +19316,7 @@
         <v>3</v>
       </c>
       <c r="I724">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="725" spans="1:9" x14ac:dyDescent="0.4">
@@ -19345,7 +19345,7 @@
         <v>3</v>
       </c>
       <c r="I725">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.4">
@@ -19374,7 +19374,7 @@
         <v>3</v>
       </c>
       <c r="I726">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.4">
@@ -19403,7 +19403,7 @@
         <v>3</v>
       </c>
       <c r="I727">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.4">
@@ -19432,7 +19432,7 @@
         <v>3</v>
       </c>
       <c r="I728">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.4">
@@ -19461,7 +19461,7 @@
         <v>3</v>
       </c>
       <c r="I729">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.4">
@@ -19490,7 +19490,7 @@
         <v>3</v>
       </c>
       <c r="I730">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.4">
@@ -19519,7 +19519,7 @@
         <v>3</v>
       </c>
       <c r="I731">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.4">
@@ -19548,7 +19548,7 @@
         <v>3</v>
       </c>
       <c r="I732">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.4">
@@ -19577,7 +19577,7 @@
         <v>3</v>
       </c>
       <c r="I733">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.4">
@@ -19606,7 +19606,7 @@
         <v>3</v>
       </c>
       <c r="I734">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.4">
@@ -19635,7 +19635,7 @@
         <v>3</v>
       </c>
       <c r="I735">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.4">
@@ -19664,7 +19664,7 @@
         <v>3</v>
       </c>
       <c r="I736">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.4">
@@ -19693,7 +19693,7 @@
         <v>3</v>
       </c>
       <c r="I737">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="738" spans="1:9" x14ac:dyDescent="0.4">
@@ -19722,7 +19722,7 @@
         <v>3</v>
       </c>
       <c r="I738">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="739" spans="1:9" x14ac:dyDescent="0.4">
@@ -19751,7 +19751,7 @@
         <v>3</v>
       </c>
       <c r="I739">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="740" spans="1:9" x14ac:dyDescent="0.4">
@@ -19780,7 +19780,7 @@
         <v>3</v>
       </c>
       <c r="I740">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="741" spans="1:9" x14ac:dyDescent="0.4">
@@ -19809,7 +19809,7 @@
         <v>3</v>
       </c>
       <c r="I741">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="742" spans="1:9" x14ac:dyDescent="0.4">
@@ -19838,7 +19838,7 @@
         <v>3</v>
       </c>
       <c r="I742">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="743" spans="1:9" x14ac:dyDescent="0.4">
@@ -19867,7 +19867,7 @@
         <v>3</v>
       </c>
       <c r="I743">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="744" spans="1:9" x14ac:dyDescent="0.4">
@@ -19896,7 +19896,7 @@
         <v>3</v>
       </c>
       <c r="I744">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="745" spans="1:9" x14ac:dyDescent="0.4">
@@ -19925,7 +19925,7 @@
         <v>3</v>
       </c>
       <c r="I745">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.4">
@@ -19954,7 +19954,7 @@
         <v>3</v>
       </c>
       <c r="I746">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="747" spans="1:9" x14ac:dyDescent="0.4">
@@ -19983,7 +19983,7 @@
         <v>3</v>
       </c>
       <c r="I747">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="748" spans="1:9" x14ac:dyDescent="0.4">
@@ -20012,7 +20012,7 @@
         <v>3</v>
       </c>
       <c r="I748">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.4">
@@ -20041,7 +20041,7 @@
         <v>3</v>
       </c>
       <c r="I749">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.4">
@@ -20070,7 +20070,7 @@
         <v>3</v>
       </c>
       <c r="I750">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="751" spans="1:9" x14ac:dyDescent="0.4">
@@ -20099,7 +20099,7 @@
         <v>3</v>
       </c>
       <c r="I751">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="752" spans="1:9" x14ac:dyDescent="0.4">
@@ -20128,7 +20128,7 @@
         <v>3</v>
       </c>
       <c r="I752">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="753" spans="1:9" x14ac:dyDescent="0.4">
@@ -20157,7 +20157,7 @@
         <v>3</v>
       </c>
       <c r="I753">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="754" spans="1:9" x14ac:dyDescent="0.4">
@@ -20186,7 +20186,7 @@
         <v>3</v>
       </c>
       <c r="I754">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="755" spans="1:9" x14ac:dyDescent="0.4">
@@ -20215,7 +20215,7 @@
         <v>3</v>
       </c>
       <c r="I755">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="756" spans="1:9" x14ac:dyDescent="0.4">
@@ -20244,7 +20244,7 @@
         <v>3</v>
       </c>
       <c r="I756">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="757" spans="1:9" x14ac:dyDescent="0.4">
@@ -20273,7 +20273,7 @@
         <v>3</v>
       </c>
       <c r="I757">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="758" spans="1:9" x14ac:dyDescent="0.4">
@@ -20302,7 +20302,7 @@
         <v>3</v>
       </c>
       <c r="I758">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759" spans="1:9" x14ac:dyDescent="0.4">
@@ -20331,7 +20331,7 @@
         <v>3</v>
       </c>
       <c r="I759">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="760" spans="1:9" x14ac:dyDescent="0.4">
@@ -20360,7 +20360,7 @@
         <v>3</v>
       </c>
       <c r="I760">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="761" spans="1:9" x14ac:dyDescent="0.4">
@@ -20389,7 +20389,7 @@
         <v>3</v>
       </c>
       <c r="I761">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="762" spans="1:9" x14ac:dyDescent="0.4">
@@ -20418,7 +20418,7 @@
         <v>3</v>
       </c>
       <c r="I762">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="763" spans="1:9" x14ac:dyDescent="0.4">
@@ -20447,7 +20447,7 @@
         <v>3</v>
       </c>
       <c r="I763">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="764" spans="1:9" x14ac:dyDescent="0.4">
@@ -20476,7 +20476,7 @@
         <v>3</v>
       </c>
       <c r="I764">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="765" spans="1:9" x14ac:dyDescent="0.4">
@@ -20505,7 +20505,7 @@
         <v>3</v>
       </c>
       <c r="I765">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="766" spans="1:9" x14ac:dyDescent="0.4">
@@ -20534,7 +20534,7 @@
         <v>3</v>
       </c>
       <c r="I766">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="767" spans="1:9" x14ac:dyDescent="0.4">
@@ -20563,7 +20563,7 @@
         <v>3</v>
       </c>
       <c r="I767">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768" spans="1:9" x14ac:dyDescent="0.4">
@@ -20592,7 +20592,7 @@
         <v>3</v>
       </c>
       <c r="I768">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="769" spans="1:9" x14ac:dyDescent="0.4">
@@ -20877,7 +20877,7 @@
         <v>3</v>
       </c>
       <c r="I794" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="795" spans="1:9" x14ac:dyDescent="0.4">
@@ -20906,7 +20906,7 @@
         <v>3</v>
       </c>
       <c r="I795" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="796" spans="1:9" x14ac:dyDescent="0.4">
@@ -20935,7 +20935,7 @@
         <v>3</v>
       </c>
       <c r="I796" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="797" spans="1:9" x14ac:dyDescent="0.4">
@@ -20964,7 +20964,7 @@
         <v>3</v>
       </c>
       <c r="I797" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="798" spans="1:9" x14ac:dyDescent="0.4">
@@ -20993,7 +20993,7 @@
         <v>3</v>
       </c>
       <c r="I798" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="799" spans="1:9" x14ac:dyDescent="0.4">
@@ -21022,7 +21022,7 @@
         <v>3</v>
       </c>
       <c r="I799" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="800" spans="1:9" x14ac:dyDescent="0.4">
@@ -21051,7 +21051,7 @@
         <v>3</v>
       </c>
       <c r="I800" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="801" spans="1:9" x14ac:dyDescent="0.4">
@@ -21080,7 +21080,7 @@
         <v>3</v>
       </c>
       <c r="I801" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="802" spans="1:9" x14ac:dyDescent="0.4">
@@ -21109,7 +21109,7 @@
         <v>3</v>
       </c>
       <c r="I802" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="803" spans="1:9" x14ac:dyDescent="0.4">
@@ -21138,7 +21138,7 @@
         <v>3</v>
       </c>
       <c r="I803" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="804" spans="1:9" x14ac:dyDescent="0.4">
@@ -21167,7 +21167,7 @@
         <v>3</v>
       </c>
       <c r="I804" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="805" spans="1:9" x14ac:dyDescent="0.4">
@@ -21196,7 +21196,7 @@
         <v>3</v>
       </c>
       <c r="I805" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="806" spans="1:9" x14ac:dyDescent="0.4">
@@ -21225,7 +21225,7 @@
         <v>3</v>
       </c>
       <c r="I806" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="807" spans="1:9" x14ac:dyDescent="0.4">
@@ -21254,7 +21254,7 @@
         <v>3</v>
       </c>
       <c r="I807" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="808" spans="1:9" x14ac:dyDescent="0.4">
@@ -21283,7 +21283,7 @@
         <v>3</v>
       </c>
       <c r="I808" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="809" spans="1:9" x14ac:dyDescent="0.4">
@@ -21312,7 +21312,7 @@
         <v>3</v>
       </c>
       <c r="I809" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="810" spans="1:9" x14ac:dyDescent="0.4">
@@ -21341,7 +21341,7 @@
         <v>3</v>
       </c>
       <c r="I810" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="811" spans="1:9" x14ac:dyDescent="0.4">
@@ -21370,7 +21370,7 @@
         <v>3</v>
       </c>
       <c r="I811" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="812" spans="1:9" x14ac:dyDescent="0.4">
@@ -21399,7 +21399,7 @@
         <v>3</v>
       </c>
       <c r="I812" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="813" spans="1:9" x14ac:dyDescent="0.4">
@@ -21428,7 +21428,7 @@
         <v>3</v>
       </c>
       <c r="I813" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="814" spans="1:9" x14ac:dyDescent="0.4">
@@ -21457,7 +21457,7 @@
         <v>3</v>
       </c>
       <c r="I814" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="815" spans="1:9" x14ac:dyDescent="0.4">
@@ -21486,7 +21486,7 @@
         <v>3</v>
       </c>
       <c r="I815" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="816" spans="1:9" x14ac:dyDescent="0.4">
@@ -21515,7 +21515,7 @@
         <v>3</v>
       </c>
       <c r="I816" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="817" spans="1:9" x14ac:dyDescent="0.4">
@@ -21544,7 +21544,7 @@
         <v>3</v>
       </c>
       <c r="I817" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="818" spans="1:9" x14ac:dyDescent="0.4">
@@ -21573,7 +21573,7 @@
         <v>3</v>
       </c>
       <c r="I818" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="819" spans="1:9" x14ac:dyDescent="0.4">
@@ -21602,7 +21602,7 @@
         <v>3</v>
       </c>
       <c r="I819" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="820" spans="1:9" x14ac:dyDescent="0.4">
@@ -21631,7 +21631,7 @@
         <v>3</v>
       </c>
       <c r="I820" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:9" x14ac:dyDescent="0.4">
@@ -21660,7 +21660,7 @@
         <v>3</v>
       </c>
       <c r="I821" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:9" x14ac:dyDescent="0.4">
@@ -21689,7 +21689,7 @@
         <v>3</v>
       </c>
       <c r="I822" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:9" x14ac:dyDescent="0.4">
@@ -21718,7 +21718,7 @@
         <v>3</v>
       </c>
       <c r="I823" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:9" x14ac:dyDescent="0.4">
@@ -21747,7 +21747,7 @@
         <v>3</v>
       </c>
       <c r="I824" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:9" x14ac:dyDescent="0.4">
@@ -21776,7 +21776,7 @@
         <v>3</v>
       </c>
       <c r="I825" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:9" x14ac:dyDescent="0.4">
@@ -21805,7 +21805,7 @@
         <v>3</v>
       </c>
       <c r="I826" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:9" x14ac:dyDescent="0.4">
@@ -22037,7 +22037,7 @@
         <v>3</v>
       </c>
       <c r="I834" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="835" spans="1:9" x14ac:dyDescent="0.4">
@@ -22066,7 +22066,7 @@
         <v>3</v>
       </c>
       <c r="I835" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="836" spans="1:9" x14ac:dyDescent="0.4">
@@ -22095,7 +22095,7 @@
         <v>3</v>
       </c>
       <c r="I836" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="837" spans="1:9" x14ac:dyDescent="0.4">
@@ -22124,7 +22124,7 @@
         <v>3</v>
       </c>
       <c r="I837" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="838" spans="1:9" x14ac:dyDescent="0.4">
@@ -22153,7 +22153,7 @@
         <v>3</v>
       </c>
       <c r="I838" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="839" spans="1:9" x14ac:dyDescent="0.4">
@@ -22182,7 +22182,7 @@
         <v>3</v>
       </c>
       <c r="I839" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="840" spans="1:9" x14ac:dyDescent="0.4">
@@ -22211,7 +22211,7 @@
         <v>3</v>
       </c>
       <c r="I840" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="841" spans="1:9" x14ac:dyDescent="0.4">
@@ -22240,7 +22240,7 @@
         <v>3</v>
       </c>
       <c r="I841" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="842" spans="1:9" x14ac:dyDescent="0.4">
@@ -22269,7 +22269,7 @@
         <v>3</v>
       </c>
       <c r="I842" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="843" spans="1:9" x14ac:dyDescent="0.4">
@@ -22298,7 +22298,7 @@
         <v>3</v>
       </c>
       <c r="I843" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="844" spans="1:9" x14ac:dyDescent="0.4">
@@ -22327,7 +22327,7 @@
         <v>3</v>
       </c>
       <c r="I844" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="845" spans="1:9" x14ac:dyDescent="0.4">
@@ -22356,7 +22356,7 @@
         <v>3</v>
       </c>
       <c r="I845" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="846" spans="1:9" x14ac:dyDescent="0.4">
@@ -22385,7 +22385,7 @@
         <v>3</v>
       </c>
       <c r="I846" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="847" spans="1:9" x14ac:dyDescent="0.4">
@@ -22414,7 +22414,7 @@
         <v>3</v>
       </c>
       <c r="I847" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="848" spans="1:9" x14ac:dyDescent="0.4">
@@ -22443,7 +22443,7 @@
         <v>3</v>
       </c>
       <c r="I848" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.4">
@@ -22472,7 +22472,7 @@
         <v>3</v>
       </c>
       <c r="I849" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="850" spans="1:9" x14ac:dyDescent="0.4">
@@ -22501,7 +22501,7 @@
         <v>3</v>
       </c>
       <c r="I850">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="851" spans="1:9" x14ac:dyDescent="0.4">
@@ -22530,7 +22530,7 @@
         <v>3</v>
       </c>
       <c r="I851">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="852" spans="1:9" x14ac:dyDescent="0.4">
@@ -22559,7 +22559,7 @@
         <v>3</v>
       </c>
       <c r="I852">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="853" spans="1:9" x14ac:dyDescent="0.4">

--- a/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM1_USM_LGM_SerialNumber.xlsx
+++ b/06_납품현황/2017/04_부산용홈만w몰/02_SerialNumber/CCM1_USM_LGM_SerialNumber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GUI\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\02_PGS\06_납품현황\2017\04_부산용홈만w몰\02_SerialNumber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -406,40 +406,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS878"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I360" sqref="I360"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="1"/>
-    <col min="7" max="8" width="8.796875" style="4"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.78515625" style="1"/>
+    <col min="2" max="2" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.78515625" style="1"/>
+    <col min="7" max="8" width="8.78515625" style="4"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
       <c r="BQ3" s="3"/>
       <c r="BS3" s="2"/>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -557,7 +557,7 @@
       <c r="BQ4" s="3"/>
       <c r="BS4" s="2"/>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="BQ5" s="3"/>
       <c r="BS5" s="2"/>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -697,7 +697,7 @@
       <c r="BQ6" s="3"/>
       <c r="BS6" s="2"/>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -767,7 +767,7 @@
       <c r="BQ7" s="3"/>
       <c r="BS7" s="2"/>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="BQ8" s="3"/>
       <c r="BS8" s="2"/>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="BQ9" s="3"/>
       <c r="BS9" s="2"/>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="BQ10" s="3"/>
       <c r="BS10" s="2"/>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="BQ11" s="3"/>
       <c r="BS11" s="2"/>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1117,7 +1117,7 @@
       <c r="BQ12" s="3"/>
       <c r="BS12" s="2"/>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="BQ13" s="3"/>
       <c r="BS13" s="2"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="BQ14" s="3"/>
       <c r="BS14" s="2"/>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="BQ15" s="3"/>
       <c r="BS15" s="2"/>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1396,7 +1396,7 @@
       <c r="BQ16" s="3"/>
       <c r="BS16" s="2"/>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1464,7 +1464,7 @@
       <c r="BQ17" s="3"/>
       <c r="BS17" s="2"/>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="BQ18" s="3"/>
       <c r="BS18" s="2"/>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="BQ19" s="3"/>
       <c r="BS19" s="2"/>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="BQ20" s="3"/>
       <c r="BS20" s="2"/>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1744,7 +1744,7 @@
       <c r="BQ21" s="3"/>
       <c r="BS21" s="2"/>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="BQ22" s="3"/>
       <c r="BS22" s="2"/>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="BQ23" s="3"/>
       <c r="BS23" s="2"/>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="BP24" s="4"/>
       <c r="BQ24" s="3"/>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="BP25" s="4"/>
       <c r="BQ25" s="3"/>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2076,7 +2076,7 @@
       <c r="BP26" s="4"/>
       <c r="BQ26" s="3"/>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="BP27" s="4"/>
       <c r="BQ27" s="3"/>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2204,7 +2204,7 @@
       <c r="BP28" s="4"/>
       <c r="BQ28" s="3"/>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="BP29" s="4"/>
       <c r="BQ29" s="3"/>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2332,7 +2332,7 @@
       <c r="BP30" s="4"/>
       <c r="BQ30" s="3"/>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -2396,7 +2396,7 @@
       <c r="BP31" s="4"/>
       <c r="BQ31" s="3"/>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="BP32" s="4"/>
       <c r="BQ32" s="3"/>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -2524,7 +2524,7 @@
       <c r="BP33" s="4"/>
       <c r="BQ33" s="3"/>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="BP34" s="4"/>
       <c r="BQ34" s="3"/>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="BP35" s="4"/>
       <c r="BQ35" s="3"/>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2716,7 +2716,7 @@
       <c r="BP36" s="4"/>
       <c r="BQ36" s="3"/>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -2780,7 +2780,7 @@
       <c r="BP37" s="4"/>
       <c r="BQ37" s="3"/>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="BP38" s="4"/>
       <c r="BQ38" s="3"/>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="BP39" s="4"/>
       <c r="BQ39" s="3"/>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="BP40" s="4"/>
       <c r="BQ40" s="3"/>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="BP41" s="4"/>
       <c r="BQ41" s="3"/>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -3100,7 +3100,7 @@
       <c r="BP42" s="4"/>
       <c r="BQ42" s="3"/>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="BP43" s="4"/>
       <c r="BQ43" s="3"/>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="BP44" s="4"/>
       <c r="BQ44" s="3"/>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="BP45" s="4"/>
       <c r="BQ45" s="3"/>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="BP46" s="4"/>
       <c r="BQ46" s="3"/>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="BP47" s="4"/>
       <c r="BQ47" s="3"/>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -3484,7 +3484,7 @@
       <c r="BP48" s="4"/>
       <c r="BQ48" s="3"/>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="BP49" s="4"/>
       <c r="BQ49" s="3"/>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -3584,7 +3584,7 @@
       <c r="BP50" s="4"/>
       <c r="BQ50" s="3"/>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="BP51" s="4"/>
       <c r="BQ51" s="3"/>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="BP52" s="4"/>
       <c r="BQ52" s="3"/>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="BP53" s="4"/>
       <c r="BQ53" s="3"/>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -3784,7 +3784,7 @@
       <c r="BP54" s="4"/>
       <c r="BQ54" s="3"/>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -3834,7 +3834,7 @@
       <c r="BP55" s="4"/>
       <c r="BQ55" s="3"/>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -3884,7 +3884,7 @@
       <c r="BP56" s="4"/>
       <c r="BQ56" s="3"/>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>54</v>
       </c>
@@ -3934,7 +3934,7 @@
       <c r="BP57" s="4"/>
       <c r="BQ57" s="3"/>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>55</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="BP58" s="4"/>
       <c r="BQ58" s="3"/>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>56</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="BP59" s="4"/>
       <c r="BQ59" s="3"/>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>57</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="BP60" s="4"/>
       <c r="BQ60" s="3"/>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>58</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="BP61" s="4"/>
       <c r="BQ61" s="3"/>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>59</v>
       </c>
@@ -4184,7 +4184,7 @@
       <c r="BP62" s="4"/>
       <c r="BQ62" s="3"/>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>60</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="BP63" s="4"/>
       <c r="BQ63" s="3"/>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>61</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="BP64" s="4"/>
       <c r="BQ64" s="3"/>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>62</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="BP65" s="4"/>
       <c r="BQ65" s="3"/>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>63</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="BP66" s="4"/>
       <c r="BQ66" s="3"/>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>64</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="BP67" s="4"/>
       <c r="BQ67" s="3"/>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="BP68" s="4"/>
       <c r="BQ68" s="3"/>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>66</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="BP69" s="4"/>
       <c r="BQ69" s="3"/>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>67</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="BP70" s="4"/>
       <c r="BQ70" s="3"/>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>68</v>
       </c>
@@ -4634,7 +4634,7 @@
       <c r="BP71" s="4"/>
       <c r="BQ71" s="3"/>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="C72" s="3"/>
       <c r="I72" s="3"/>
       <c r="M72" s="1"/>
@@ -4659,7 +4659,7 @@
       <c r="BP72" s="4"/>
       <c r="BQ72" s="3"/>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -4687,7 +4687,7 @@
       <c r="BP73" s="4"/>
       <c r="BQ73" s="3"/>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>129</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="BP74" s="4"/>
       <c r="BQ74" s="3"/>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>130</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="BP75" s="4"/>
       <c r="BQ75" s="3"/>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>131</v>
       </c>
@@ -4778,7 +4778,7 @@
       <c r="BP76" s="4"/>
       <c r="BQ76" s="3"/>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>132</v>
       </c>
@@ -4804,7 +4804,7 @@
       <c r="BP77" s="4"/>
       <c r="BQ77" s="3"/>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>133</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="3"/>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>134</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="T79" s="4"/>
       <c r="U79" s="3"/>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:69" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>135</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="T80" s="4"/>
       <c r="U80" s="3"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>136</v>
       </c>
@@ -4880,7 +4880,7 @@
       <c r="T81" s="4"/>
       <c r="U81" s="3"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>137</v>
       </c>
@@ -4892,7 +4892,7 @@
       </c>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>138</v>
       </c>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>139</v>
       </c>
@@ -4916,7 +4916,7 @@
       </c>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>140</v>
       </c>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>141</v>
       </c>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>142</v>
       </c>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>143</v>
       </c>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>144</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>145</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>146</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>147</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>148</v>
       </c>
@@ -5020,27 +5020,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>1</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>5</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>6</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>7</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>8</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>9</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>10</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>11</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>12</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>13</v>
       </c>
@@ -5417,7 +5417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>14</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>15</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>16</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>17</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>18</v>
       </c>
@@ -5562,7 +5562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>19</v>
       </c>
@@ -5588,10 +5588,10 @@
         <v>3</v>
       </c>
       <c r="I116">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>20</v>
       </c>
@@ -5617,10 +5617,10 @@
         <v>3</v>
       </c>
       <c r="I117">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>21</v>
       </c>
@@ -5646,10 +5646,10 @@
         <v>3</v>
       </c>
       <c r="I118">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>22</v>
       </c>
@@ -5675,10 +5675,10 @@
         <v>3</v>
       </c>
       <c r="I119">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>23</v>
       </c>
@@ -5704,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="I120">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>24</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>25</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>26</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>27</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>28</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>29</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>30</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>31</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>32</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>33</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>34</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>35</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>36</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>37</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>38</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>39</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>40</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>41</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>42</v>
       </c>
@@ -6258,7 +6258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>43</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>44</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>45</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>46</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>47</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>48</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>49</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>50</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>51</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>52</v>
       </c>
@@ -6548,12 +6548,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>129</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>130</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>131</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>132</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>133</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>134</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>135</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>136</v>
       </c>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>137</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>138</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>139</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>140</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>141</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>142</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>143</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>144</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>145</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>146</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>147</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>148</v>
       </c>
@@ -6773,22 +6773,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>3</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>4</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>5</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>6</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>7</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>8</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>9</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>10</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>11</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>12</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>13</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>14</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>15</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>16</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>17</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>18</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>19</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>20</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>21</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>22</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>23</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>24</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>25</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>26</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>27</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>28</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>29</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>30</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>31</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>32</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>33</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>34</v>
       </c>
@@ -7774,7 +7774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>35</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>36</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>37</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>38</v>
       </c>
@@ -7890,12 +7890,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>129</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>130</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>131</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>132</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>133</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>134</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>135</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>136</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>137</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>138</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>139</v>
       </c>
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>140</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>141</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>142</v>
       </c>
@@ -8049,22 +8049,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>1</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>3</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>4</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>5</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>6</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>7</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>8</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>9</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>10</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>11</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>12</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>13</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>14</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>15</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>16</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>17</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>18</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>19</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>20</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>21</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>22</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>23</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>24</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>25</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>26</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>27</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>28</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>29</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>30</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>31</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>32</v>
       </c>
@@ -8992,7 +8992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>33</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>34</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>35</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>36</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>37</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>38</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>39</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>40</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>41</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>42</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>43</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>44</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>45</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>46</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>47</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>48</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>49</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>50</v>
       </c>
@@ -9514,7 +9514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>51</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>52</v>
       </c>
@@ -9572,12 +9572,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>129</v>
       </c>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>130</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>131</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>132</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>133</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>134</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>135</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>136</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>137</v>
       </c>
@@ -9676,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>138</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>139</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>140</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>141</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>142</v>
       </c>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>143</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>144</v>
       </c>
@@ -9753,22 +9753,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>1</v>
       </c>
@@ -9797,7 +9797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>2</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>3</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>4</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>5</v>
       </c>
@@ -9913,7 +9913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>6</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>7</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>8</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>9</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>10</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>11</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>12</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>13</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>14</v>
       </c>
@@ -10174,7 +10174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>15</v>
       </c>
@@ -10203,7 +10203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>16</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>17</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>18</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>19</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>20</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>21</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>22</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>23</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>24</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>25</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>26</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>27</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>28</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>29</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>30</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>31</v>
       </c>
@@ -10667,7 +10667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>32</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>33</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>34</v>
       </c>
@@ -10754,7 +10754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>35</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>36</v>
       </c>
@@ -10812,7 +10812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>37</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>38</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>39</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>40</v>
       </c>
@@ -10928,7 +10928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>41</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>42</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>43</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>44</v>
       </c>
@@ -11044,7 +11044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>45</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>46</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>47</v>
       </c>
@@ -11131,7 +11131,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>48</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>49</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>50</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>51</v>
       </c>
@@ -11247,7 +11247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>52</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>53</v>
       </c>
@@ -11305,7 +11305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>54</v>
       </c>
@@ -11334,7 +11334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>55</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>56</v>
       </c>
@@ -11392,7 +11392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>57</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>58</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>59</v>
       </c>
@@ -11479,7 +11479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>60</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>61</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>62</v>
       </c>
@@ -11566,7 +11566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>63</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>64</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>65</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>66</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>67</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>68</v>
       </c>
@@ -11740,12 +11740,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>129</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>130</v>
       </c>
@@ -11767,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>131</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>132</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>133</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>134</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>135</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1">
         <v>136</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1">
         <v>137</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>138</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>139</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>140</v>
       </c>
@@ -11877,7 +11877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1">
         <v>141</v>
       </c>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1">
         <v>142</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>143</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>144</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>145</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>146</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>147</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>148</v>
       </c>
@@ -11965,22 +11965,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1">
         <v>1</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1">
         <v>2</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1">
         <v>3</v>
       </c>
@@ -12067,7 +12067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>4</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>5</v>
       </c>
@@ -12125,7 +12125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>6</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>7</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>8</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>9</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>10</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>11</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>12</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>13</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>14</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>15</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>16</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>17</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>18</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>19</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>20</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>21</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>22</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>23</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>24</v>
       </c>
@@ -12676,7 +12676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>25</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>26</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>27</v>
       </c>
@@ -12763,7 +12763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>28</v>
       </c>
@@ -12792,7 +12792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>29</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>30</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>31</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>32</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>33</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>34</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>35</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>36</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>37</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>38</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>39</v>
       </c>
@@ -13111,7 +13111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>40</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>41</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1">
         <v>42</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1">
         <v>43</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>44</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1">
         <v>45</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1">
         <v>46</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1">
         <v>47</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1">
         <v>48</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1">
         <v>49</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1">
         <v>50</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>51</v>
       </c>
@@ -13459,7 +13459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1">
         <v>52</v>
       </c>
@@ -13488,7 +13488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1">
         <v>53</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1">
         <v>54</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1">
         <v>55</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1">
         <v>56</v>
       </c>
@@ -13604,13 +13604,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1">
         <v>129</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1">
         <v>130</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1">
         <v>131</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1">
         <v>132</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1">
         <v>133</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1">
         <v>134</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1">
         <v>135</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1">
         <v>136</v>
       </c>
@@ -13698,7 +13698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>137</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1">
         <v>138</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1">
         <v>139</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1">
         <v>140</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1">
         <v>141</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1">
         <v>142</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1">
         <v>143</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1">
         <v>144</v>
       </c>
@@ -13786,22 +13786,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1">
         <v>1</v>
       </c>
@@ -13830,7 +13830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1">
         <v>2</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1">
         <v>3</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1">
         <v>4</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1">
         <v>5</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1">
         <v>6</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1">
         <v>7</v>
       </c>
@@ -14004,7 +14004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1">
         <v>8</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1">
         <v>9</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1">
         <v>10</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1">
         <v>11</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1">
         <v>12</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1">
         <v>13</v>
       </c>
@@ -14178,7 +14178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1">
         <v>14</v>
       </c>
@@ -14207,7 +14207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1">
         <v>15</v>
       </c>
@@ -14236,7 +14236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1">
         <v>16</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1">
         <v>17</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1">
         <v>18</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1">
         <v>19</v>
       </c>
@@ -14352,7 +14352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1">
         <v>20</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1">
         <v>21</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1">
         <v>22</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1">
         <v>23</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1">
         <v>24</v>
       </c>
@@ -14497,7 +14497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1">
         <v>25</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1">
         <v>26</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1">
         <v>27</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1">
         <v>28</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1">
         <v>29</v>
       </c>
@@ -14642,7 +14642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1">
         <v>30</v>
       </c>
@@ -14671,7 +14671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1">
         <v>31</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1">
         <v>32</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1">
         <v>33</v>
       </c>
@@ -14758,7 +14758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1">
         <v>34</v>
       </c>
@@ -14787,7 +14787,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1">
         <v>35</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1">
         <v>36</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1">
         <v>37</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1">
         <v>38</v>
       </c>
@@ -14903,12 +14903,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1">
         <v>129</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1">
         <v>130</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1">
         <v>131</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1">
         <v>132</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1">
         <v>133</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1">
         <v>134</v>
       </c>
@@ -14974,7 +14974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1">
         <v>135</v>
       </c>
@@ -14985,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1">
         <v>136</v>
       </c>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1">
         <v>137</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1">
         <v>138</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1">
         <v>139</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1">
         <v>140</v>
       </c>
@@ -15040,22 +15040,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1">
         <v>1</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
         <v>2</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1">
         <v>3</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1">
         <v>4</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1">
         <v>5</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1">
         <v>6</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1">
         <v>7</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1">
         <v>8</v>
       </c>
@@ -15287,7 +15287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1">
         <v>9</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1">
         <v>10</v>
       </c>
@@ -15345,7 +15345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1">
         <v>11</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1">
         <v>12</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1">
         <v>13</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1">
         <v>14</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1">
         <v>15</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1">
         <v>16</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1">
         <v>17</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1">
         <v>18</v>
       </c>
@@ -15577,7 +15577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1">
         <v>19</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1">
         <v>20</v>
       </c>
@@ -15635,7 +15635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1">
         <v>21</v>
       </c>
@@ -15664,7 +15664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1">
         <v>22</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1">
         <v>23</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A568" s="1">
         <v>24</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A569" s="1">
         <v>25</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A570" s="1">
         <v>26</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A571" s="1">
         <v>27</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A572" s="1">
         <v>28</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A573" s="1">
         <v>29</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A574" s="1">
         <v>30</v>
       </c>
@@ -15925,7 +15925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A575" s="1">
         <v>31</v>
       </c>
@@ -15954,7 +15954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A576" s="1">
         <v>32</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A577" s="1">
         <v>33</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A578" s="1">
         <v>34</v>
       </c>
@@ -16041,7 +16041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A579" s="1">
         <v>35</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A580" s="1">
         <v>36</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A581" s="1">
         <v>37</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A582" s="1">
         <v>38</v>
       </c>
@@ -16157,7 +16157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A583" s="1">
         <v>39</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A584" s="1">
         <v>40</v>
       </c>
@@ -16215,7 +16215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A585" s="1">
         <v>41</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A586" s="1">
         <v>42</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A587" s="1">
         <v>43</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A588" s="1">
         <v>44</v>
       </c>
@@ -16331,7 +16331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A589" s="1">
         <v>45</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A590" s="1">
         <v>46</v>
       </c>
@@ -16389,7 +16389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A591" s="1">
         <v>47</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A592" s="1">
         <v>48</v>
       </c>
@@ -16447,7 +16447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A593" s="1">
         <v>49</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A594" s="1">
         <v>50</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A595" s="1">
         <v>51</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A596" s="1">
         <v>52</v>
       </c>
@@ -16563,7 +16563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A597" s="1">
         <v>53</v>
       </c>
@@ -16592,7 +16592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A598" s="1">
         <v>54</v>
       </c>
@@ -16621,7 +16621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A599" s="1">
         <v>55</v>
       </c>
@@ -16650,7 +16650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A600" s="1">
         <v>56</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A601" s="1">
         <v>57</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A602" s="1">
         <v>58</v>
       </c>
@@ -16737,7 +16737,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A603" s="1">
         <v>59</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A604" s="1">
         <v>60</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A605" s="1">
         <v>61</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A606" s="1">
         <v>62</v>
       </c>
@@ -16853,12 +16853,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A608" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A609" s="1">
         <v>129</v>
       </c>
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A610" s="1">
         <v>130</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A611" s="1">
         <v>131</v>
       </c>
@@ -16891,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A612" s="1">
         <v>132</v>
       </c>
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A613" s="1">
         <v>133</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A614" s="1">
         <v>134</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A615" s="1">
         <v>135</v>
       </c>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A616" s="1">
         <v>136</v>
       </c>
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A617" s="1">
         <v>137</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A618" s="1">
         <v>138</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A619" s="1">
         <v>139</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A620" s="1">
         <v>140</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A621" s="1">
         <v>141</v>
       </c>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A622" s="1">
         <v>142</v>
       </c>
@@ -17012,7 +17012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A623" s="1">
         <v>143</v>
       </c>
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A624" s="1">
         <v>144</v>
       </c>
@@ -17034,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A625" s="1">
         <v>145</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A626" s="1">
         <v>146</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A627" s="1">
         <v>147</v>
       </c>
@@ -17067,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A628" s="1">
         <v>148</v>
       </c>
@@ -17078,22 +17078,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A630" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A631" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A632" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A633" s="1">
         <v>1</v>
       </c>
@@ -17122,7 +17122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A634" s="1">
         <v>2</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A635" s="1">
         <v>3</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A636" s="1">
         <v>4</v>
       </c>
@@ -17209,7 +17209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A637" s="1">
         <v>5</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A638" s="1">
         <v>6</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A639" s="1">
         <v>7</v>
       </c>
@@ -17296,7 +17296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A640" s="1">
         <v>8</v>
       </c>
@@ -17325,7 +17325,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A641" s="1">
         <v>9</v>
       </c>
@@ -17354,7 +17354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A642" s="1">
         <v>10</v>
       </c>
@@ -17383,7 +17383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A643" s="1">
         <v>11</v>
       </c>
@@ -17412,7 +17412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A644" s="1">
         <v>12</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A645" s="1">
         <v>13</v>
       </c>
@@ -17470,7 +17470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A646" s="1">
         <v>14</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A647" s="1">
         <v>15</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A648" s="1">
         <v>16</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A649" s="1">
         <v>17</v>
       </c>
@@ -17586,7 +17586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A650" s="1">
         <v>18</v>
       </c>
@@ -17615,7 +17615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A651" s="1">
         <v>19</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A652" s="1">
         <v>20</v>
       </c>
@@ -17673,7 +17673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A653" s="1">
         <v>21</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A654" s="1">
         <v>22</v>
       </c>
@@ -17731,7 +17731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A655" s="1">
         <v>23</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A656" s="1">
         <v>24</v>
       </c>
@@ -17789,7 +17789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A657" s="1">
         <v>25</v>
       </c>
@@ -17818,7 +17818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A658" s="1">
         <v>26</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A659" s="1">
         <v>27</v>
       </c>
@@ -17876,7 +17876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A660" s="1">
         <v>28</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A661" s="1">
         <v>29</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A662" s="1">
         <v>30</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A663" s="1">
         <v>31</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A664" s="1">
         <v>32</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A665" s="1">
         <v>33</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A666" s="1">
         <v>34</v>
       </c>
@@ -18079,7 +18079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A667" s="1">
         <v>35</v>
       </c>
@@ -18108,7 +18108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A668" s="1">
         <v>36</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A669" s="1">
         <v>37</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A670" s="1">
         <v>38</v>
       </c>
@@ -18195,7 +18195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A671" s="1">
         <v>39</v>
       </c>
@@ -18224,7 +18224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A672" s="1">
         <v>40</v>
       </c>
@@ -18253,7 +18253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A673" s="1">
         <v>41</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A674" s="1">
         <v>42</v>
       </c>
@@ -18311,7 +18311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A675" s="1">
         <v>43</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A676" s="1">
         <v>44</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A677" s="1">
         <v>45</v>
       </c>
@@ -18398,7 +18398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A678" s="1">
         <v>46</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A679" s="1">
         <v>47</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A680" s="1">
         <v>48</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A681" s="1">
         <v>49</v>
       </c>
@@ -18514,7 +18514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A682" s="1">
         <v>50</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A683" s="1">
         <v>51</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A684" s="1">
         <v>52</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A685" s="1">
         <v>53</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A686" s="1">
         <v>54</v>
       </c>
@@ -18659,7 +18659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A687" s="1">
         <v>55</v>
       </c>
@@ -18688,7 +18688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A688" s="1">
         <v>56</v>
       </c>
@@ -18717,7 +18717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A689" s="1">
         <v>57</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A690" s="1">
         <v>58</v>
       </c>
@@ -18775,7 +18775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A691" s="1">
         <v>59</v>
       </c>
@@ -18804,7 +18804,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A692" s="1">
         <v>60</v>
       </c>
@@ -18833,12 +18833,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A694" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A695" s="1">
         <v>129</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A696" s="1">
         <v>130</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A697" s="1">
         <v>131</v>
       </c>
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A698" s="1">
         <v>132</v>
       </c>
@@ -18882,7 +18882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A699" s="1">
         <v>133</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A700" s="1">
         <v>134</v>
       </c>
@@ -18904,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A701" s="1">
         <v>135</v>
       </c>
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A702" s="1">
         <v>136</v>
       </c>
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A703" s="1">
         <v>137</v>
       </c>
@@ -18937,7 +18937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A704" s="1">
         <v>138</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A705" s="1">
         <v>139</v>
       </c>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A706" s="1">
         <v>140</v>
       </c>
@@ -18970,7 +18970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A707" s="1">
         <v>141</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A708" s="1">
         <v>142</v>
       </c>
@@ -18992,7 +18992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A709" s="1">
         <v>143</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A710" s="1">
         <v>144</v>
       </c>
@@ -19014,22 +19014,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A712" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A713" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A714" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A715" s="1">
         <v>1</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A716" s="1">
         <v>2</v>
       </c>
@@ -19087,7 +19087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A717" s="1">
         <v>3</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A718" s="1">
         <v>4</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A719" s="1">
         <v>5</v>
       </c>
@@ -19174,7 +19174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A720" s="1">
         <v>6</v>
       </c>
@@ -19203,7 +19203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A721" s="1">
         <v>7</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A722" s="1">
         <v>8</v>
       </c>
@@ -19261,7 +19261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A723" s="1">
         <v>9</v>
       </c>
@@ -19290,7 +19290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A724" s="1">
         <v>10</v>
       </c>
@@ -19319,7 +19319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A725" s="1">
         <v>11</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A726" s="1">
         <v>12</v>
       </c>
@@ -19377,7 +19377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A727" s="1">
         <v>13</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A728" s="1">
         <v>14</v>
       </c>
@@ -19435,7 +19435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A729" s="1">
         <v>15</v>
       </c>
@@ -19464,7 +19464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A730" s="1">
         <v>16</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A731" s="1">
         <v>17</v>
       </c>
@@ -19522,7 +19522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A732" s="1">
         <v>18</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A733" s="1">
         <v>19</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A734" s="1">
         <v>20</v>
       </c>
@@ -19609,7 +19609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A735" s="1">
         <v>21</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A736" s="1">
         <v>22</v>
       </c>
@@ -19667,7 +19667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A737" s="1">
         <v>23</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A738" s="1">
         <v>24</v>
       </c>
@@ -19725,7 +19725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A739" s="1">
         <v>25</v>
       </c>
@@ -19754,7 +19754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A740" s="1">
         <v>26</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A741" s="1">
         <v>27</v>
       </c>
@@ -19812,7 +19812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A742" s="1">
         <v>28</v>
       </c>
@@ -19841,7 +19841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A743" s="1">
         <v>29</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A744" s="1">
         <v>30</v>
       </c>
@@ -19899,7 +19899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A745" s="1">
         <v>31</v>
       </c>
@@ -19928,7 +19928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A746" s="1">
         <v>32</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A747" s="1">
         <v>33</v>
       </c>
@@ -19986,7 +19986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A748" s="1">
         <v>34</v>
       </c>
@@ -20015,7 +20015,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A749" s="1">
         <v>35</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A750" s="1">
         <v>36</v>
       </c>
@@ -20073,7 +20073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A751" s="1">
         <v>37</v>
       </c>
@@ -20102,7 +20102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A752" s="1">
         <v>38</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A753" s="1">
         <v>39</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A754" s="1">
         <v>40</v>
       </c>
@@ -20189,7 +20189,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A755" s="1">
         <v>41</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A756" s="1">
         <v>42</v>
       </c>
@@ -20247,7 +20247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A757" s="1">
         <v>43</v>
       </c>
@@ -20276,7 +20276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A758" s="1">
         <v>44</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A759" s="1">
         <v>45</v>
       </c>
@@ -20334,7 +20334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A760" s="1">
         <v>46</v>
       </c>
@@ -20363,7 +20363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A761" s="1">
         <v>47</v>
       </c>
@@ -20392,7 +20392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A762" s="1">
         <v>48</v>
       </c>
@@ -20421,7 +20421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A763" s="1">
         <v>49</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A764" s="1">
         <v>50</v>
       </c>
@@ -20479,7 +20479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A765" s="1">
         <v>51</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A766" s="1">
         <v>52</v>
       </c>
@@ -20537,7 +20537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A767" s="1">
         <v>53</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A768" s="1">
         <v>54</v>
       </c>
@@ -20595,7 +20595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A769" s="1">
         <v>55</v>
       </c>
@@ -20624,7 +20624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="770" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A770" s="1">
         <v>56</v>
       </c>
@@ -20653,12 +20653,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="772" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A772" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A773" s="1">
         <v>129</v>
       </c>
@@ -20669,7 +20669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A774" s="1">
         <v>130</v>
       </c>
@@ -20680,7 +20680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A775" s="1">
         <v>131</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A776" s="1">
         <v>132</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A777" s="1">
         <v>133</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A778" s="1">
         <v>134</v>
       </c>
@@ -20724,7 +20724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A779" s="1">
         <v>135</v>
       </c>
@@ -20735,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A780" s="1">
         <v>136</v>
       </c>
@@ -20746,7 +20746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A781" s="1">
         <v>137</v>
       </c>
@@ -20757,7 +20757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A782" s="1">
         <v>138</v>
       </c>
@@ -20768,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A783" s="1">
         <v>139</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A784" s="1">
         <v>140</v>
       </c>
@@ -20790,7 +20790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A785" s="1">
         <v>141</v>
       </c>
@@ -20801,7 +20801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A786" s="1">
         <v>142</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A787" s="1">
         <v>143</v>
       </c>
@@ -20823,7 +20823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A788" s="1">
         <v>144</v>
       </c>
@@ -20834,24 +20834,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A791" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="792" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A792" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="793" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A793" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C793" s="3"/>
       <c r="I793" s="3"/>
     </row>
-    <row r="794" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A794" s="1">
         <v>1</v>
       </c>
@@ -20880,7 +20880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A795" s="1">
         <v>2</v>
       </c>
@@ -20909,7 +20909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A796" s="1">
         <v>3</v>
       </c>
@@ -20938,7 +20938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A797" s="1">
         <v>4</v>
       </c>
@@ -20967,7 +20967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="798" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A798" s="1">
         <v>5</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="799" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A799" s="1">
         <v>6</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="800" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A800" s="1">
         <v>7</v>
       </c>
@@ -21054,7 +21054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="801" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A801" s="1">
         <v>8</v>
       </c>
@@ -21083,7 +21083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="802" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A802" s="1">
         <v>9</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="803" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A803" s="1">
         <v>10</v>
       </c>
@@ -21141,7 +21141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="804" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A804" s="1">
         <v>11</v>
       </c>
@@ -21170,7 +21170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="805" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A805" s="1">
         <v>12</v>
       </c>
@@ -21199,7 +21199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="806" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A806" s="1">
         <v>13</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="807" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A807" s="1">
         <v>14</v>
       </c>
@@ -21257,7 +21257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="808" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A808" s="1">
         <v>15</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="809" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A809" s="1">
         <v>16</v>
       </c>
@@ -21315,7 +21315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="810" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A810" s="1">
         <v>17</v>
       </c>
@@ -21344,7 +21344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="811" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A811" s="1">
         <v>18</v>
       </c>
@@ -21373,7 +21373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="812" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A812" s="1">
         <v>19</v>
       </c>
@@ -21402,7 +21402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="813" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A813" s="1">
         <v>20</v>
       </c>
@@ -21431,7 +21431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="814" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A814" s="1">
         <v>21</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="815" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A815" s="1">
         <v>22</v>
       </c>
@@ -21489,7 +21489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="816" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A816" s="1">
         <v>23</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="817" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A817" s="1">
         <v>24</v>
       </c>
@@ -21547,7 +21547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="818" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A818" s="1">
         <v>25</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A819" s="1">
         <v>26</v>
       </c>
@@ -21605,7 +21605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A820" s="1">
         <v>27</v>
       </c>
@@ -21634,7 +21634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="821" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A821" s="1">
         <v>28</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="822" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A822" s="1">
         <v>29</v>
       </c>
@@ -21692,7 +21692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="823" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A823" s="1">
         <v>30</v>
       </c>
@@ -21721,7 +21721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="824" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A824" s="1">
         <v>31</v>
       </c>
@@ -21750,7 +21750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="825" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A825" s="1">
         <v>32</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="826" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A826" s="1">
         <v>33</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A827" s="1">
         <v>34</v>
       </c>
@@ -21837,7 +21837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="828" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A828" s="1">
         <v>35</v>
       </c>
@@ -21866,7 +21866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="829" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A829" s="1">
         <v>36</v>
       </c>
@@ -21895,7 +21895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A830" s="1">
         <v>37</v>
       </c>
@@ -21924,7 +21924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A831" s="1">
         <v>38</v>
       </c>
@@ -21953,7 +21953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A832" s="1">
         <v>39</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A833" s="1">
         <v>40</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A834" s="1">
         <v>41</v>
       </c>
@@ -22040,7 +22040,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="835" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A835" s="1">
         <v>42</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="836" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A836" s="1">
         <v>43</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="837" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A837" s="1">
         <v>44</v>
       </c>
@@ -22127,7 +22127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="838" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A838" s="1">
         <v>45</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="839" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A839" s="1">
         <v>46</v>
       </c>
@@ -22185,7 +22185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="840" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A840" s="1">
         <v>47</v>
       </c>
@@ -22214,7 +22214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="841" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A841" s="1">
         <v>48</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="842" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A842" s="1">
         <v>49</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="843" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A843" s="1">
         <v>50</v>
       </c>
@@ -22301,7 +22301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="844" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A844" s="1">
         <v>51</v>
       </c>
@@ -22330,7 +22330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="845" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A845" s="1">
         <v>52</v>
       </c>
@@ -22359,7 +22359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="846" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A846" s="1">
         <v>53</v>
       </c>
@@ -22388,7 +22388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="847" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A847" s="1">
         <v>54</v>
       </c>
@@ -22417,7 +22417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A848" s="1">
         <v>55</v>
       </c>
@@ -22446,7 +22446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="849" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A849" s="1">
         <v>56</v>
       </c>
@@ -22475,7 +22475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="850" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A850" s="1">
         <v>46</v>
       </c>
@@ -22504,7 +22504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="851" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A851" s="1">
         <v>47</v>
       </c>
@@ -22533,7 +22533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="852" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A852" s="1">
         <v>48</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="853" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A853" s="1">
         <v>49</v>
       </c>
@@ -22591,7 +22591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="854" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A854" s="1">
         <v>50</v>
       </c>
@@ -22620,7 +22620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="855" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A855" s="1">
         <v>57</v>
       </c>
@@ -22649,7 +22649,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="856" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A856" s="1">
         <v>58</v>
       </c>
@@ -22678,18 +22678,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="857" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C857" s="3"/>
       <c r="I857" s="3"/>
     </row>
-    <row r="858" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A858" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C858" s="3"/>
       <c r="I858" s="3"/>
     </row>
-    <row r="859" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A859" s="1">
         <v>129</v>
       </c>
@@ -22701,7 +22701,7 @@
       </c>
       <c r="I859" s="3"/>
     </row>
-    <row r="860" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A860" s="1">
         <v>130</v>
       </c>
@@ -22713,7 +22713,7 @@
       </c>
       <c r="I860" s="3"/>
     </row>
-    <row r="861" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A861" s="1">
         <v>131</v>
       </c>
@@ -22725,7 +22725,7 @@
       </c>
       <c r="I861" s="3"/>
     </row>
-    <row r="862" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A862" s="1">
         <v>132</v>
       </c>
@@ -22737,7 +22737,7 @@
       </c>
       <c r="I862" s="3"/>
     </row>
-    <row r="863" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A863" s="1">
         <v>133</v>
       </c>
@@ -22749,7 +22749,7 @@
       </c>
       <c r="I863" s="3"/>
     </row>
-    <row r="864" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A864" s="1">
         <v>134</v>
       </c>
@@ -22761,7 +22761,7 @@
       </c>
       <c r="I864" s="3"/>
     </row>
-    <row r="865" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A865" s="1">
         <v>135</v>
       </c>
@@ -22773,7 +22773,7 @@
       </c>
       <c r="I865" s="3"/>
     </row>
-    <row r="866" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A866" s="1">
         <v>136</v>
       </c>
@@ -22785,7 +22785,7 @@
       </c>
       <c r="I866" s="3"/>
     </row>
-    <row r="867" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A867" s="1">
         <v>137</v>
       </c>
@@ -22797,7 +22797,7 @@
       </c>
       <c r="I867" s="3"/>
     </row>
-    <row r="868" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A868" s="1">
         <v>138</v>
       </c>
@@ -22809,7 +22809,7 @@
       </c>
       <c r="I868" s="3"/>
     </row>
-    <row r="869" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A869" s="1">
         <v>139</v>
       </c>
@@ -22821,7 +22821,7 @@
       </c>
       <c r="I869" s="3"/>
     </row>
-    <row r="870" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A870" s="1">
         <v>140</v>
       </c>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="I870" s="3"/>
     </row>
-    <row r="871" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A871" s="1">
         <v>141</v>
       </c>
@@ -22845,7 +22845,7 @@
       </c>
       <c r="I871" s="3"/>
     </row>
-    <row r="872" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A872" s="1">
         <v>142</v>
       </c>
@@ -22857,7 +22857,7 @@
       </c>
       <c r="I872" s="3"/>
     </row>
-    <row r="873" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A873" s="1">
         <v>143</v>
       </c>
@@ -22869,7 +22869,7 @@
       </c>
       <c r="I873" s="3"/>
     </row>
-    <row r="874" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A874" s="1">
         <v>144</v>
       </c>
@@ -22881,7 +22881,7 @@
       </c>
       <c r="I874" s="3"/>
     </row>
-    <row r="875" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A875" s="1">
         <v>145</v>
       </c>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A876" s="1">
         <v>146</v>
       </c>
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A877" s="1">
         <v>147</v>
       </c>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A878" s="1">
         <v>148</v>
       </c>
